--- a/crudo/datos/Canastas.xlsx
+++ b/crudo/datos/Canastas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/garakaki_worldbank_org/Documents/Papers/ceped.data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB522502\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{0A50B326-14BE-450E-AE08-452339C63C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8842B5B1-00E7-489B-9529-50E0854D20A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C54B9-F098-4740-B34A-680BA6587B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C7ECD5BB-8A8B-4ADB-99DB-B49CB1081E00}"/>
   </bookViews>
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,53 +277,35 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +318,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,16 +641,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7BB2D7-2A4F-4EFF-8E35-F270BFD02A6F}">
-  <dimension ref="A1:C322"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
     <sheetView topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322:C322"/>
+      <selection activeCell="L328" sqref="L328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,41 +672,41 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>27273</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>29465</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>130747.17971999345</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>112123.29187946883</v>
       </c>
     </row>
@@ -726,10 +714,10 @@
       <c r="A12" s="3">
         <v>29830</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>281695.62346487638</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>241570.33963227781</v>
       </c>
     </row>
@@ -737,10 +725,10 @@
       <c r="A13" s="3">
         <v>30195</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>845984.33109546441</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>725480.64351378952</v>
       </c>
     </row>
@@ -748,10 +736,10 @@
       <c r="A14" s="3">
         <v>31291</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>20.113000000000003</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>17.248064351378957</v>
       </c>
     </row>
@@ -759,10 +747,10 @@
       <c r="A15" s="3">
         <v>31656</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>35.496488155133861</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>30.894779749744632</v>
       </c>
     </row>
@@ -770,10 +758,10 @@
       <c r="A16" s="3">
         <v>31868</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>52.038252242777283</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>45.685340909090911</v>
       </c>
     </row>
@@ -781,10 +769,10 @@
       <c r="A17" s="3">
         <v>32021</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>85.621541419815344</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>75.634329673135838</v>
       </c>
     </row>
@@ -792,10 +780,10 @@
       <c r="A18" s="4">
         <v>32234</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>173.4</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>154.50390704800816</v>
       </c>
     </row>
@@ -803,10 +791,10 @@
       <c r="A19" s="4">
         <v>32387</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>427.58</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>386.58456332992847</v>
       </c>
     </row>
@@ -814,10 +802,10 @@
       <c r="A20" s="4">
         <v>32599</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>978.22</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>910.41649642492325</v>
       </c>
     </row>
@@ -825,10 +813,10 @@
       <c r="A21" s="4">
         <v>32752</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>15044.699999999999</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>14693.09420326864</v>
       </c>
     </row>
@@ -836,10 +824,10 @@
       <c r="A22" s="4">
         <v>32964</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>137130.01</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>133716.27553626147</v>
       </c>
     </row>
@@ -847,10 +835,10 @@
       <c r="A23" s="4">
         <v>33117</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>245772.87</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>263913.46016343206</v>
       </c>
     </row>
@@ -858,10 +846,10 @@
       <c r="A24" s="4">
         <v>33329</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>400185.98</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>461784.65526046976</v>
       </c>
     </row>
@@ -869,10 +857,10 @@
       <c r="A25" s="4">
         <v>33482</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>487425.48</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>556980.15960163425</v>
       </c>
     </row>
@@ -880,10 +868,10 @@
       <c r="A26" s="4">
         <v>33695</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>55.51</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>63.486899514811029</v>
       </c>
     </row>
@@ -891,10 +879,10 @@
       <c r="A27" s="4">
         <v>33848</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>57.94</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>66.990880362614902</v>
       </c>
     </row>
@@ -902,10 +890,10 @@
       <c r="A28" s="4">
         <v>34060</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>60.89</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>70.083712206332976</v>
       </c>
     </row>
@@ -913,10 +901,10 @@
       <c r="A29" s="4">
         <v>34213</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>62.44</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>72.513254724208366</v>
       </c>
     </row>
@@ -924,10 +912,10 @@
       <c r="A30" s="4">
         <v>34425</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>61.59</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>71.075680669050044</v>
       </c>
     </row>
@@ -935,10 +923,10 @@
       <c r="A31" s="4">
         <v>34578</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>62.82</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>72.955259320735436</v>
       </c>
     </row>
@@ -946,10 +934,10 @@
       <c r="A32" s="4">
         <v>34790</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>64.84</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>73.952170326864135</v>
       </c>
     </row>
@@ -957,10 +945,10 @@
       <c r="A33" s="4">
         <v>34943</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>66.12</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>74.286780515832447</v>
       </c>
     </row>
@@ -968,10 +956,10 @@
       <c r="A34" s="4">
         <v>35156</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>65.88</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>73.329198033707854</v>
       </c>
     </row>
@@ -979,10 +967,10 @@
       <c r="A35" s="4">
         <v>35309</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>67.38</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>74.835402834525013</v>
       </c>
     </row>
@@ -990,10 +978,10 @@
       <c r="A36" s="4">
         <v>35521</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>65.38</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>72.641690245148098</v>
       </c>
     </row>
@@ -1001,10 +989,10 @@
       <c r="A37" s="4">
         <v>35674</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>67.36</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>74.099034473952997</v>
       </c>
     </row>
@@ -1012,10 +1000,10 @@
       <c r="A38" s="4">
         <v>35886</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>68.28</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>74.320742849846766</v>
       </c>
     </row>
@@ -1023,10 +1011,10 @@
       <c r="A39" s="4">
         <v>36039</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <v>69.78</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>75.571629979570972</v>
       </c>
     </row>
@@ -1034,10 +1022,10 @@
       <c r="A40" s="4">
         <v>36251</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <v>65.97</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>72.834378830439221</v>
       </c>
     </row>
@@ -1045,10 +1033,10 @@
       <c r="A41" s="4">
         <v>36404</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="18">
         <v>64.569999999999993</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>71.398781792645551</v>
       </c>
     </row>
@@ -1056,10 +1044,10 @@
       <c r="A42" s="4">
         <v>36617</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="18">
         <v>62.93</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>70.191389044943804</v>
       </c>
     </row>
@@ -1067,10 +1055,10 @@
       <c r="A43" s="4">
         <v>36770</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <v>62.44</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>70.045795837589367</v>
       </c>
     </row>
@@ -1078,10 +1066,10 @@
       <c r="A44" s="4">
         <v>36800</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <v>64.3</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>70.607763023493334</v>
       </c>
     </row>
@@ -1089,10 +1077,10 @@
       <c r="A45" s="4">
         <v>36831</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <v>63.47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>69.696922880490291</v>
       </c>
     </row>
@@ -1100,10 +1088,10 @@
       <c r="A46" s="4">
         <v>36861</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <v>62.76</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>69.012027579162407</v>
       </c>
     </row>
@@ -1111,10 +1099,10 @@
       <c r="A47" s="4">
         <v>36892</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="18">
         <v>62.73</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>68.948480592441257</v>
       </c>
     </row>
@@ -1122,10 +1110,10 @@
       <c r="A48" s="4">
         <v>36923</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <v>62.73</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>68.913176710929505</v>
       </c>
     </row>
@@ -1133,10 +1121,10 @@
       <c r="A49" s="4">
         <v>36951</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="18">
         <v>62.92</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>69.329762512768113</v>
       </c>
     </row>
@@ -1144,10 +1132,10 @@
       <c r="A50" s="4">
         <v>36982</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>63.24</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>69.760469867211427</v>
       </c>
     </row>
@@ -1155,10 +1143,10 @@
       <c r="A51" s="4">
         <v>37012</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>62.74</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>69.555707354443314</v>
       </c>
     </row>
@@ -1166,10 +1154,10 @@
       <c r="A52" s="4">
         <v>37043</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>61.76</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>68.715474974463717</v>
       </c>
     </row>
@@ -1177,10 +1165,10 @@
       <c r="A53" s="4">
         <v>37073</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <v>61.59</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>68.673110316649641</v>
       </c>
     </row>
@@ -1188,10 +1176,10 @@
       <c r="A54" s="4">
         <v>37104</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>61.37</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>68.454226251276808</v>
       </c>
     </row>
@@ -1199,10 +1187,10 @@
       <c r="A55" s="4">
         <v>37135</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <v>61.02</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>68.355375383043921</v>
       </c>
     </row>
@@ -1210,10 +1198,10 @@
       <c r="A56" s="4">
         <v>37165</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>60.5</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>67.621054647599593</v>
       </c>
     </row>
@@ -1221,10 +1209,10 @@
       <c r="A57" s="4">
         <v>37196</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>60.75</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>67.790513278855968</v>
       </c>
     </row>
@@ -1232,10 +1220,10 @@
       <c r="A58" s="4">
         <v>37226</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <v>60.46</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>67.557507660878443</v>
       </c>
     </row>
@@ -1243,10 +1231,10 @@
       <c r="A59" s="4">
         <v>37257</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <v>62.41</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>68.976723697650655</v>
       </c>
     </row>
@@ -1254,10 +1242,10 @@
       <c r="A60" s="4">
         <v>37288</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="18">
         <v>65.819999999999993</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>71.730426455566899</v>
       </c>
     </row>
@@ -1265,10 +1253,10 @@
       <c r="A61" s="4">
         <v>37316</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="18">
         <v>69.83</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>75.479698672114395</v>
       </c>
     </row>
@@ -1276,10 +1264,10 @@
       <c r="A62" s="4">
         <v>37347</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="18">
         <v>81.760000000000005</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>85.456575587334015</v>
       </c>
     </row>
@@ -1287,10 +1275,10 @@
       <c r="A63" s="4">
         <v>37377</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <v>86.2</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>89.693041368743607</v>
       </c>
     </row>
@@ -1298,10 +1286,10 @@
       <c r="A64" s="4">
         <v>37408</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="18">
         <v>90.67</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>93.957750255362598</v>
       </c>
     </row>
@@ -1309,10 +1297,10 @@
       <c r="A65" s="4">
         <v>37438</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="18">
         <v>94.93</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>97.82705566905004</v>
       </c>
     </row>
@@ -1320,10 +1308,10 @@
       <c r="A66" s="4">
         <v>37469</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="18">
         <v>100.94</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>102.38125638406535</v>
       </c>
     </row>
@@ -1331,10 +1319,10 @@
       <c r="A67" s="4">
         <v>37500</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="18">
         <v>104.87</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>105.33266087844738</v>
       </c>
     </row>
@@ -1342,10 +1330,10 @@
       <c r="A68" s="4">
         <v>37530</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="18">
         <v>103.74</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>105.00080439223696</v>
       </c>
     </row>
@@ -1353,10 +1341,10 @@
       <c r="A69" s="4">
         <v>37561</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="18">
         <v>105.08</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>106.07404239019405</v>
       </c>
     </row>
@@ -1364,10 +1352,10 @@
       <c r="A70" s="4">
         <v>37591</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="18">
         <v>105.72</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>106.70245148110317</v>
       </c>
     </row>
@@ -1375,10 +1363,10 @@
       <c r="A71" s="4">
         <v>37622</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="18">
         <v>106.92</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>108.35467313585291</v>
       </c>
     </row>
@@ -1386,10 +1374,10 @@
       <c r="A72" s="4">
         <v>37653</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="18">
         <v>107.56</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>109.65385597548519</v>
       </c>
     </row>
@@ -1397,10 +1385,10 @@
       <c r="A73" s="4">
         <v>37681</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="18">
         <v>107.83</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>110.96716036772213</v>
       </c>
     </row>
@@ -1408,10 +1396,10 @@
       <c r="A74" s="4">
         <v>37712</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="18">
         <v>106.55</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>110.68472931562816</v>
       </c>
     </row>
@@ -1419,10 +1407,10 @@
       <c r="A75" s="4">
         <v>37742</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="18">
         <v>104.6</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>109.6114913176711</v>
       </c>
     </row>
@@ -1430,10 +1418,10 @@
       <c r="A76" s="4">
         <v>37773</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <v>103.13</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>108.75713738508682</v>
       </c>
     </row>
@@ -1441,10 +1429,10 @@
       <c r="A77" s="4">
         <v>37803</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="18">
         <v>102.31</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>108.79244126659857</v>
       </c>
     </row>
@@ -1452,10 +1440,10 @@
       <c r="A78" s="4">
         <v>37834</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <v>102.08</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>109.32906026557711</v>
       </c>
     </row>
@@ -1463,10 +1451,10 @@
       <c r="A79" s="4">
         <v>37865</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="18">
         <v>101.99</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="20">
         <v>109.73152451481103</v>
       </c>
     </row>
@@ -1474,10 +1462,10 @@
       <c r="A80" s="4">
         <v>37895</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <v>104.12</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>111.348442288049</v>
       </c>
     </row>
@@ -1485,10 +1473,10 @@
       <c r="A81" s="4">
         <v>37926</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="18">
         <v>105.24</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="20">
         <v>111.99097293156282</v>
       </c>
     </row>
@@ -1496,10 +1484,10 @@
       <c r="A82" s="4">
         <v>37956</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="18">
         <v>105.76</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="20">
         <v>111.68735955056179</v>
       </c>
     </row>
@@ -1507,10 +1495,10 @@
       <c r="A83" s="4">
         <v>37987</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="18">
         <v>105.81</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="20">
         <v>112.11100612870274</v>
       </c>
     </row>
@@ -1518,10 +1506,10 @@
       <c r="A84" s="4">
         <v>38018</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="18">
         <v>106.17</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>112.50640960163432</v>
       </c>
     </row>
@@ -1529,10 +1517,10 @@
       <c r="A85" s="4">
         <v>38047</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="18">
         <v>106.02</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="20">
         <v>112.94417773237996</v>
       </c>
     </row>
@@ -1540,10 +1528,10 @@
       <c r="A86" s="4">
         <v>38078</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="18">
         <v>106.52</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="20">
         <v>113.99623340143</v>
       </c>
     </row>
@@ -1551,10 +1539,10 @@
       <c r="A87" s="4">
         <v>38108</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="18">
         <v>106.66</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="20">
         <v>115.06241062308477</v>
       </c>
     </row>
@@ -1562,10 +1550,10 @@
       <c r="A88" s="4">
         <v>38139</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="18">
         <v>106.88</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="20">
         <v>115.85321756894788</v>
       </c>
     </row>
@@ -1573,10 +1561,10 @@
       <c r="A89" s="4">
         <v>38169</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="18">
         <v>106.14</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="20">
         <v>115.50017875383043</v>
       </c>
     </row>
@@ -1584,10 +1572,10 @@
       <c r="A90" s="4">
         <v>38200</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="18">
         <v>107.9</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="20">
         <v>116.93351634320734</v>
       </c>
     </row>
@@ -1595,10 +1583,10 @@
       <c r="A91" s="4">
         <v>38231</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="18">
         <v>108.54</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <v>117.71726251276812</v>
       </c>
     </row>
@@ -1606,10 +1594,10 @@
       <c r="A92" s="4">
         <v>38261</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="18">
         <v>108.1</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <v>117.94320735444329</v>
       </c>
     </row>
@@ -1617,10 +1605,10 @@
       <c r="A93" s="4">
         <v>38292</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="18">
         <v>108.25</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="20">
         <v>117.68195863125636</v>
       </c>
     </row>
@@ -1628,10 +1616,10 @@
       <c r="A94" s="4">
         <v>38322</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="18">
         <v>108.36</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="20">
         <v>118.45158324821246</v>
       </c>
     </row>
@@ -1639,10 +1627,10 @@
       <c r="A95" s="4">
         <v>38353</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="18">
         <v>108.66</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="20">
         <v>119.291815628192</v>
       </c>
     </row>
@@ -1650,10 +1638,10 @@
       <c r="A96" s="4">
         <v>38384</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="18">
         <v>111.37</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="20">
         <v>121.43123084780385</v>
       </c>
     </row>
@@ -1661,10 +1649,10 @@
       <c r="A97" s="4">
         <v>38412</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="18">
         <v>114.71</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="20">
         <v>124.65800561797752</v>
       </c>
     </row>
@@ -1672,10 +1660,10 @@
       <c r="A98" s="4">
         <v>38443</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="18">
         <v>114.18</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="20">
         <v>125.11695607763021</v>
       </c>
     </row>
@@ -1683,10 +1671,10 @@
       <c r="A99" s="4">
         <v>38473</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="18">
         <v>114.04</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="20">
         <v>125.37114402451479</v>
       </c>
     </row>
@@ -1694,10 +1682,10 @@
       <c r="A100" s="4">
         <v>38504</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B100" s="18">
         <v>114.49</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="20">
         <v>126.345531154239</v>
       </c>
     </row>
@@ -1705,10 +1693,10 @@
       <c r="A101" s="4">
         <v>38534</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="18">
         <v>115.78</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="20">
         <v>127.81417262512767</v>
       </c>
     </row>
@@ -1716,10 +1704,10 @@
       <c r="A102" s="4">
         <v>38565</v>
       </c>
-      <c r="B102" s="19">
+      <c r="B102" s="18">
         <v>117.5</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <v>129.62879213483146</v>
       </c>
     </row>
@@ -1727,10 +1715,10 @@
       <c r="A103" s="4">
         <v>38596</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="18">
         <v>120.14</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="20">
         <v>132.8979315628192</v>
       </c>
     </row>
@@ -1738,10 +1726,10 @@
       <c r="A104" s="4">
         <v>38626</v>
       </c>
-      <c r="B104" s="19">
+      <c r="B104" s="18">
         <v>120.7</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="20">
         <v>133.15918028600609</v>
       </c>
     </row>
@@ -1749,10 +1737,10 @@
       <c r="A105" s="4">
         <v>38657</v>
       </c>
-      <c r="B105" s="19">
+      <c r="B105" s="18">
         <v>124.73</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="20">
         <v>136.0187946884576</v>
       </c>
     </row>
@@ -1760,10 +1748,10 @@
       <c r="A106" s="4">
         <v>38687</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B106" s="18">
         <v>124.59</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="20">
         <v>137.04966802860059</v>
       </c>
     </row>
@@ -1771,10 +1759,10 @@
       <c r="A107" s="4">
         <v>38718</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="18">
         <v>125.81</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="20">
         <v>138.25</v>
       </c>
     </row>
@@ -1782,10 +1770,10 @@
       <c r="A108" s="4">
         <v>38749</v>
       </c>
-      <c r="B108" s="19">
+      <c r="B108" s="18">
         <v>127.19</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="20">
         <v>139.61000000000001</v>
       </c>
     </row>
@@ -1793,10 +1781,10 @@
       <c r="A109" s="4">
         <v>38777</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="18">
         <v>129.44</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="20">
         <v>141.06</v>
       </c>
     </row>
@@ -1804,10 +1792,10 @@
       <c r="A110" s="4">
         <v>38808</v>
       </c>
-      <c r="B110" s="19">
+      <c r="B110" s="18">
         <v>128.49</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="20">
         <v>140.38999999999999</v>
       </c>
     </row>
@@ -1815,10 +1803,10 @@
       <c r="A111" s="4">
         <v>38838</v>
       </c>
-      <c r="B111" s="19">
+      <c r="B111" s="18">
         <v>126.57</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="20">
         <v>138.71</v>
       </c>
     </row>
@@ -1826,10 +1814,10 @@
       <c r="A112" s="4">
         <v>38869</v>
       </c>
-      <c r="B112" s="19">
+      <c r="B112" s="18">
         <v>126.62</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="20">
         <v>138.96</v>
       </c>
     </row>
@@ -1837,10 +1825,10 @@
       <c r="A113" s="4">
         <v>38899</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B113" s="18">
         <v>126.36</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="20">
         <v>138.37</v>
       </c>
     </row>
@@ -1848,10 +1836,10 @@
       <c r="A114" s="4">
         <v>38930</v>
       </c>
-      <c r="B114" s="19">
+      <c r="B114" s="18">
         <v>126.68</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="20">
         <v>138.97999999999999</v>
       </c>
     </row>
@@ -1859,10 +1847,10 @@
       <c r="A115" s="4">
         <v>38961</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="18">
         <v>126.78</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="20">
         <v>139.31</v>
       </c>
     </row>
@@ -1870,10 +1858,10 @@
       <c r="A116" s="4">
         <v>38991</v>
       </c>
-      <c r="B116" s="19">
+      <c r="B116" s="18">
         <v>127.88</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="20">
         <v>141.71</v>
       </c>
     </row>
@@ -1881,10 +1869,10 @@
       <c r="A117" s="4">
         <v>39022</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B117" s="18">
         <v>130.5</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="20">
         <v>145.02000000000001</v>
       </c>
     </row>
@@ -1892,10 +1880,10 @@
       <c r="A118" s="4">
         <v>39052</v>
       </c>
-      <c r="B118" s="19">
+      <c r="B118" s="18">
         <v>134.13999999999999</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="20">
         <v>149.13</v>
       </c>
     </row>
@@ -1903,10 +1891,10 @@
       <c r="A119" s="4">
         <v>39083</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="18">
         <v>136.23252846369954</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="20">
         <v>151.41784265892719</v>
       </c>
     </row>
@@ -1914,10 +1902,10 @@
       <c r="A120" s="4">
         <v>39114</v>
       </c>
-      <c r="B120" s="19">
+      <c r="B120" s="18">
         <v>138.30522253437826</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="20">
         <v>153.68247217489721</v>
       </c>
     </row>
@@ -1925,10 +1913,10 @@
       <c r="A121" s="4">
         <v>39142</v>
       </c>
-      <c r="B121" s="19">
+      <c r="B121" s="18">
         <v>139.75313322490015</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C121" s="20">
         <v>155.25186750074667</v>
       </c>
     </row>
@@ -1936,10 +1924,10 @@
       <c r="A122" s="4">
         <v>39173</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="18">
         <v>146.25881413573859</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="20">
         <v>162.43770636608554</v>
       </c>
     </row>
@@ -1947,10 +1935,10 @@
       <c r="A123" s="4">
         <v>39203</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="18">
         <v>150.21577554339788</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C123" s="20">
         <v>166.78994531436956</v>
       </c>
     </row>
@@ -1958,10 +1946,10 @@
       <c r="A124" s="4">
         <v>39234</v>
       </c>
-      <c r="B124" s="19">
+      <c r="B124" s="18">
         <v>158.13961555522698</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="20">
         <v>175.54340652710118</v>
       </c>
     </row>
@@ -1969,10 +1957,10 @@
       <c r="A125" s="4">
         <v>39264</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="18">
         <v>165.00231554044058</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="20">
         <v>183.11478157750724</v>
       </c>
     </row>
@@ -1980,10 +1968,10 @@
       <c r="A126" s="4">
         <v>39295</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="18">
         <v>172.57905367440483</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C126" s="20">
         <v>191.47451090679937</v>
       </c>
     </row>
@@ -1991,10 +1979,10 @@
       <c r="A127" s="4">
         <v>39326</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="18">
         <v>177.67649268076295</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C127" s="20">
         <v>197.07992100702205</v>
       </c>
     </row>
@@ -2002,10 +1990,10 @@
       <c r="A128" s="4">
         <v>39356</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="18">
         <v>181.23676622800528</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="20">
         <v>200.9778669581336</v>
       </c>
     </row>
@@ -2013,10 +2001,10 @@
       <c r="A129" s="4">
         <v>39387</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="18">
         <v>175.32611710779241</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="20">
         <v>194.37395164604942</v>
       </c>
     </row>
@@ -2024,10 +2012,10 @@
       <c r="A130" s="4">
         <v>39417</v>
       </c>
-      <c r="B130" s="19">
+      <c r="B130" s="18">
         <v>175.95090048794907</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="20">
         <v>195.01699687813198</v>
       </c>
     </row>
@@ -2035,10 +2023,10 @@
       <c r="A131" s="4">
         <v>39448</v>
       </c>
-      <c r="B131" s="19">
+      <c r="B131" s="18">
         <v>181.40535856868249</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="20">
         <v>201.01136065841084</v>
       </c>
     </row>
@@ -2046,10 +2034,10 @@
       <c r="A132" s="4">
         <v>39479</v>
       </c>
-      <c r="B132" s="19">
+      <c r="B132" s="18">
         <v>190.35066982108529</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="20">
         <v>210.8698175773622</v>
       </c>
     </row>
@@ -2057,10 +2045,10 @@
       <c r="A133" s="4">
         <v>39508</v>
       </c>
-      <c r="B133" s="19">
+      <c r="B133" s="18">
         <v>204.63143279609642</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="20">
         <v>226.63233809539199</v>
       </c>
     </row>
@@ -2068,10 +2056,10 @@
       <c r="A134" s="4">
         <v>39539</v>
       </c>
-      <c r="B134" s="19">
+      <c r="B134" s="18">
         <v>212.4461836463108</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="20">
         <v>235.22744386751398</v>
       </c>
     </row>
@@ -2079,10 +2067,10 @@
       <c r="A135" s="4">
         <v>39569</v>
       </c>
-      <c r="B135" s="19">
+      <c r="B135" s="18">
         <v>208.21154073635958</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="20">
         <v>230.48006858056937</v>
       </c>
     </row>
@@ -2090,10 +2078,10 @@
       <c r="A136" s="4">
         <v>39600</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B136" s="18">
         <v>212.0693301789147</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="20">
         <v>234.69074440904123</v>
       </c>
     </row>
@@ -2101,10 +2089,10 @@
       <c r="A137" s="4">
         <v>39630</v>
       </c>
-      <c r="B137" s="19">
+      <c r="B137" s="18">
         <v>214.35028537631226</v>
       </c>
-      <c r="C137" s="21">
+      <c r="C137" s="20">
         <v>237.15467217926556</v>
       </c>
     </row>
@@ -2112,10 +2100,10 @@
       <c r="A138" s="4">
         <v>39661</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="18">
         <v>214.57838089605201</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="20">
         <v>237.34664888709239</v>
       </c>
     </row>
@@ -2123,10 +2111,10 @@
       <c r="A139" s="4">
         <v>39692</v>
       </c>
-      <c r="B139" s="19">
+      <c r="B139" s="18">
         <v>214.43954014490609</v>
       </c>
-      <c r="C139" s="21">
+      <c r="C139" s="20">
         <v>237.13274504937854</v>
       </c>
     </row>
@@ -2134,10 +2122,10 @@
       <c r="A140" s="4">
         <v>39722</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="18">
         <v>215.58993494011531</v>
       </c>
-      <c r="C140" s="21">
+      <c r="C140" s="20">
         <v>238.34424178876299</v>
       </c>
     </row>
@@ -2145,10 +2133,10 @@
       <c r="A141" s="4">
         <v>39753</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="18">
         <v>216.37339346443886</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="20">
         <v>239.14954573643695</v>
       </c>
     </row>
@@ -2156,10 +2144,10 @@
       <c r="A142" s="4">
         <v>39783</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="18">
         <v>215.93703681798019</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>238.60655072458067</v>
       </c>
     </row>
@@ -2167,10 +2155,10 @@
       <c r="A143" s="4">
         <v>39814</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B143" s="18">
         <v>218.18824042584652</v>
       </c>
-      <c r="C143" s="21">
+      <c r="C143" s="20">
         <v>241.03276696232885</v>
       </c>
     </row>
@@ -2178,10 +2166,10 @@
       <c r="A144" s="4">
         <v>39845</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="18">
         <v>217.44445068756468</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="20">
         <v>240.15000293676096</v>
       </c>
     </row>
@@ -2189,10 +2177,10 @@
       <c r="A145" s="4">
         <v>39873</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="18">
         <v>221.78818275913056</v>
       </c>
-      <c r="C145" s="21">
+      <c r="C145" s="20">
         <v>244.88500413102506</v>
       </c>
     </row>
@@ -2200,10 +2188,10 @@
       <c r="A146" s="4">
         <v>39904</v>
       </c>
-      <c r="B146" s="19">
+      <c r="B146" s="18">
         <v>226.58810587017592</v>
       </c>
-      <c r="C146" s="21">
+      <c r="C146" s="20">
         <v>250.12115129646514</v>
       </c>
     </row>
@@ -2211,10 +2199,10 @@
       <c r="A147" s="4">
         <v>39934</v>
       </c>
-      <c r="B147" s="19">
+      <c r="B147" s="18">
         <v>227.1137172852284</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C147" s="20">
         <v>250.63758479523892</v>
       </c>
     </row>
@@ -2222,10 +2210,10 @@
       <c r="A148" s="4">
         <v>39965</v>
       </c>
-      <c r="B148" s="19">
+      <c r="B148" s="18">
         <v>226.76661540736359</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="20">
         <v>250.19087762789553</v>
       </c>
     </row>
@@ -2233,10 +2221,10 @@
       <c r="A149" s="4">
         <v>39995</v>
       </c>
-      <c r="B149" s="19">
+      <c r="B149" s="18">
         <v>228.82939228153191</v>
       </c>
-      <c r="C149" s="21">
+      <c r="C149" s="20">
         <v>252.40251668699656</v>
       </c>
     </row>
@@ -2244,10 +2232,10 @@
       <c r="A150" s="4">
         <v>40026</v>
       </c>
-      <c r="B150" s="19">
+      <c r="B150" s="18">
         <v>234.04583764601509</v>
       </c>
-      <c r="C150" s="21">
+      <c r="C150" s="20">
         <v>258.09067699129304</v>
       </c>
     </row>
@@ -2255,10 +2243,10 @@
       <c r="A151" s="4">
         <v>40057</v>
       </c>
-      <c r="B151" s="19">
+      <c r="B151" s="18">
         <v>236.67389472127755</v>
       </c>
-      <c r="C151" s="21">
+      <c r="C151" s="20">
         <v>260.92234544358234</v>
       </c>
     </row>
@@ -2266,10 +2254,10 @@
       <c r="A152" s="4">
         <v>40087</v>
       </c>
-      <c r="B152" s="19">
+      <c r="B152" s="18">
         <v>241.8506712997191</v>
       </c>
-      <c r="C152" s="21">
+      <c r="C152" s="20">
         <v>266.56169085490581</v>
       </c>
     </row>
@@ -2277,10 +2265,10 @@
       <c r="A153" s="4">
         <v>40118</v>
       </c>
-      <c r="B153" s="19">
+      <c r="B153" s="18">
         <v>242.56470944846964</v>
       </c>
-      <c r="C153" s="21">
+      <c r="C153" s="20">
         <v>267.28068431240717</v>
       </c>
     </row>
@@ -2288,10 +2276,10 @@
       <c r="A154" s="4">
         <v>40148</v>
       </c>
-      <c r="B154" s="19">
+      <c r="B154" s="18">
         <v>257.60909655478332</v>
       </c>
-      <c r="C154" s="21">
+      <c r="C154" s="20">
         <v>283.78580901074201</v>
       </c>
     </row>
@@ -2299,10 +2287,10 @@
       <c r="A155" s="4">
         <v>40179</v>
       </c>
-      <c r="B155" s="19">
+      <c r="B155" s="18">
         <v>268.3593375720834</v>
       </c>
-      <c r="C155" s="21">
+      <c r="C155" s="20">
         <v>295.55323152350519</v>
       </c>
     </row>
@@ -2310,10 +2298,10 @@
       <c r="A156" s="4">
         <v>40210</v>
       </c>
-      <c r="B156" s="19">
+      <c r="B156" s="18">
         <v>296.44483808960518</v>
       </c>
-      <c r="C156" s="21">
+      <c r="C156" s="20">
         <v>326.40170204593852</v>
       </c>
     </row>
@@ -2321,10 +2309,10 @@
       <c r="A157" s="4">
         <v>40238</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="18">
         <v>305.24139139435164</v>
       </c>
-      <c r="C157" s="21">
+      <c r="C157" s="20">
         <v>336.00169482551331</v>
       </c>
     </row>
@@ -2332,10 +2320,10 @@
       <c r="A158" s="4">
         <v>40269</v>
       </c>
-      <c r="B158" s="19">
+      <c r="B158" s="18">
         <v>308.02812361378091</v>
       </c>
-      <c r="C158" s="21">
+      <c r="C158" s="20">
         <v>338.98301258318452</v>
       </c>
     </row>
@@ -2343,10 +2331,10 @@
       <c r="A159" s="4">
         <v>40299</v>
       </c>
-      <c r="B159" s="19">
+      <c r="B159" s="18">
         <v>313.64125683868099</v>
       </c>
-      <c r="C159" s="21">
+      <c r="C159" s="20">
         <v>345.07243735555926</v>
       </c>
     </row>
@@ -2354,10 +2342,10 @@
       <c r="A160" s="4">
         <v>40330</v>
       </c>
-      <c r="B160" s="19">
+      <c r="B160" s="18">
         <v>316.74533934644387</v>
       </c>
-      <c r="C160" s="21">
+      <c r="C160" s="20">
         <v>348.39895238550548</v>
       </c>
     </row>
@@ -2365,10 +2353,10 @@
       <c r="A161" s="4">
         <v>40360</v>
       </c>
-      <c r="B161" s="19">
+      <c r="B161" s="18">
         <v>318.68910986248704</v>
       </c>
-      <c r="C161" s="21">
+      <c r="C161" s="20">
         <v>350.44781093415708</v>
       </c>
     </row>
@@ -2376,10 +2364,10 @@
       <c r="A162" s="4">
         <v>40391</v>
       </c>
-      <c r="B162" s="19">
+      <c r="B162" s="18">
         <v>321.95186751441668</v>
       </c>
-      <c r="C162" s="21">
+      <c r="C162" s="20">
         <v>353.94566546081319</v>
       </c>
     </row>
@@ -2387,10 +2375,10 @@
       <c r="A163" s="4">
         <v>40422</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="18">
         <v>327.06914091379565</v>
       </c>
-      <c r="C163" s="21">
+      <c r="C163" s="20">
         <v>359.48000662254725</v>
       </c>
     </row>
@@ -2398,10 +2386,10 @@
       <c r="A164" s="4">
         <v>40452</v>
       </c>
-      <c r="B164" s="19">
+      <c r="B164" s="18">
         <v>345.62421558479963</v>
       </c>
-      <c r="C164" s="21">
+      <c r="C164" s="20">
         <v>379.77717095096051</v>
       </c>
     </row>
@@ -2409,10 +2397,10 @@
       <c r="A165" s="4">
         <v>40483</v>
       </c>
-      <c r="B165" s="19">
+      <c r="B165" s="18">
         <v>355.58108088126568</v>
       </c>
-      <c r="C165" s="21">
+      <c r="C165" s="20">
         <v>390.61854589143775</v>
       </c>
     </row>
@@ -2420,10 +2408,10 @@
       <c r="A166" s="4">
         <v>40513</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="18">
         <v>362.36444329439587</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="20">
         <v>397.96906137274635</v>
       </c>
     </row>
@@ -2431,10 +2419,10 @@
       <c r="A167" s="4">
         <v>40544</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="18">
         <v>363.96111193257428</v>
       </c>
-      <c r="C167" s="21">
+      <c r="C167" s="20">
         <v>399.62094166993887</v>
       </c>
     </row>
@@ -2442,10 +2430,10 @@
       <c r="A168" s="4">
         <v>40575</v>
       </c>
-      <c r="B168" s="19">
+      <c r="B168" s="18">
         <v>368.26517521809842</v>
       </c>
-      <c r="C168" s="21">
+      <c r="C168" s="20">
         <v>404.24385692639157</v>
       </c>
     </row>
@@ -2453,10 +2441,10 @@
       <c r="A169" s="4">
         <v>40603</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="18">
         <v>380.05672186899307</v>
       </c>
-      <c r="C169" s="21">
+      <c r="C169" s="20">
         <v>417.0812977713237</v>
       </c>
     </row>
@@ -2464,10 +2452,10 @@
       <c r="A170" s="4">
         <v>40634</v>
       </c>
-      <c r="B170" s="19">
+      <c r="B170" s="18">
         <v>390.47969540144902</v>
       </c>
-      <c r="C170" s="21">
+      <c r="C170" s="20">
         <v>428.41066642615425</v>
       </c>
     </row>
@@ -2475,10 +2463,10 @@
       <c r="A171" s="4">
         <v>40664</v>
       </c>
-      <c r="B171" s="19">
+      <c r="B171" s="18">
         <v>396.29117255655774</v>
       </c>
-      <c r="C171" s="21">
+      <c r="C171" s="20">
         <v>434.67607718225611</v>
       </c>
     </row>
@@ -2486,10 +2474,10 @@
       <c r="A172" s="4">
         <v>40695</v>
       </c>
-      <c r="B172" s="19">
+      <c r="B172" s="18">
         <v>401.96380896052045</v>
       </c>
-      <c r="C172" s="21">
+      <c r="C172" s="20">
         <v>440.78602277121524</v>
       </c>
     </row>
@@ -2497,10 +2485,10 @@
       <c r="A173" s="4">
         <v>40725</v>
       </c>
-      <c r="B173" s="19">
+      <c r="B173" s="18">
         <v>409.94715215141207</v>
       </c>
-      <c r="C173" s="21">
+      <c r="C173" s="20">
         <v>449.42606555682386</v>
       </c>
     </row>
@@ -2508,10 +2496,10 @@
       <c r="A174" s="4">
         <v>40756</v>
       </c>
-      <c r="B174" s="19">
+      <c r="B174" s="18">
         <v>418.55527872246051</v>
       </c>
-      <c r="C174" s="21">
+      <c r="C174" s="20">
         <v>458.74646188614088</v>
       </c>
     </row>
@@ -2519,10 +2507,10 @@
       <c r="A175" s="4">
         <v>40787</v>
       </c>
-      <c r="B175" s="19">
+      <c r="B175" s="18">
         <v>426.82622061215432</v>
       </c>
-      <c r="C175" s="21">
+      <c r="C175" s="20">
         <v>467.69261940371274</v>
       </c>
     </row>
@@ -2530,10 +2518,10 @@
       <c r="A176" s="4">
         <v>40817</v>
       </c>
-      <c r="B176" s="19">
+      <c r="B176" s="18">
         <v>427.95678101434271</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="20">
         <v>468.81215031754056</v>
       </c>
     </row>
@@ -2541,10 +2529,10 @@
       <c r="A177" s="4">
         <v>40848</v>
       </c>
-      <c r="B177" s="19">
+      <c r="B177" s="18">
         <v>430.96169155700136</v>
       </c>
-      <c r="C177" s="21">
+      <c r="C177" s="20">
         <v>471.98384625337269</v>
       </c>
     </row>
@@ -2552,10 +2540,10 @@
       <c r="A178" s="4">
         <v>40878</v>
       </c>
-      <c r="B178" s="19">
+      <c r="B178" s="18">
         <v>441.93011089753071</v>
       </c>
-      <c r="C178" s="21">
+      <c r="C178" s="20">
         <v>483.87321511026352</v>
       </c>
     </row>
@@ -2563,10 +2551,10 @@
       <c r="A179" s="4">
         <v>40909</v>
       </c>
-      <c r="B179" s="19">
+      <c r="B179" s="18">
         <v>443.73504066242793</v>
       </c>
-      <c r="C179" s="21">
+      <c r="C179" s="20">
         <v>485.72587082542975</v>
       </c>
     </row>
@@ -2574,10 +2562,10 @@
       <c r="A180" s="4">
         <v>40940</v>
       </c>
-      <c r="B180" s="19">
+      <c r="B180" s="18">
         <v>451.8770589974863</v>
       </c>
-      <c r="C180" s="21">
+      <c r="C180" s="20">
         <v>494.5125582540656</v>
       </c>
     </row>
@@ -2585,10 +2573,10 @@
       <c r="A181" s="4">
         <v>40969</v>
       </c>
-      <c r="B181" s="19">
+      <c r="B181" s="18">
         <v>472.32631820198134</v>
       </c>
-      <c r="C181" s="21">
+      <c r="C181" s="20">
         <v>516.75977215472733</v>
       </c>
     </row>
@@ -2596,10 +2584,10 @@
       <c r="A182" s="4">
         <v>41000</v>
       </c>
-      <c r="B182" s="19">
+      <c r="B182" s="18">
         <v>483.59225343782344</v>
       </c>
-      <c r="C182" s="21">
+      <c r="C182" s="20">
         <v>528.95095962394225</v>
       </c>
     </row>
@@ -2607,10 +2595,10 @@
       <c r="A183" s="4">
         <v>41030</v>
       </c>
-      <c r="B183" s="19">
+      <c r="B183" s="18">
         <v>492.09129084725708</v>
       </c>
-      <c r="C183" s="21">
+      <c r="C183" s="20">
         <v>538.11026169375816</v>
       </c>
     </row>
@@ -2618,10 +2606,10 @@
       <c r="A184" s="4">
         <v>41061</v>
       </c>
-      <c r="B184" s="19">
+      <c r="B184" s="18">
         <v>500.13413721721128</v>
       </c>
-      <c r="C184" s="21">
+      <c r="C184" s="20">
         <v>546.76614428820164</v>
       </c>
     </row>
@@ -2629,10 +2617,10 @@
       <c r="A185" s="4">
         <v>41091</v>
       </c>
-      <c r="B185" s="19">
+      <c r="B185" s="18">
         <v>509.28770959633289</v>
       </c>
-      <c r="C185" s="21">
+      <c r="C185" s="20">
         <v>556.63156887699427</v>
       </c>
     </row>
@@ -2640,10 +2628,10 @@
       <c r="A186" s="4">
         <v>41122</v>
       </c>
-      <c r="B186" s="19">
+      <c r="B186" s="18">
         <v>520.74207156587306</v>
       </c>
-      <c r="C186" s="21">
+      <c r="C186" s="20">
         <v>569.00597297601769</v>
       </c>
     </row>
@@ -2651,10 +2639,10 @@
       <c r="A187" s="4">
         <v>41153</v>
       </c>
-      <c r="B187" s="19">
+      <c r="B187" s="18">
         <v>526.6130519000443</v>
       </c>
-      <c r="C187" s="21">
+      <c r="C187" s="20">
         <v>575.27473206683794</v>
       </c>
     </row>
@@ -2662,10 +2650,10 @@
       <c r="A188" s="4">
         <v>41183</v>
       </c>
-      <c r="B188" s="19">
+      <c r="B188" s="18">
         <v>531.70057370989207</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="20">
         <v>580.68462905113267</v>
       </c>
     </row>
@@ -2673,10 +2661,10 @@
       <c r="A189" s="4">
         <v>41214</v>
       </c>
-      <c r="B189" s="19">
+      <c r="B189" s="18">
         <v>545.22762975011085</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="20">
         <v>595.30643677467685</v>
       </c>
     </row>
@@ -2684,10 +2672,10 @@
       <c r="A190" s="4">
         <v>41244</v>
       </c>
-      <c r="B190" s="19">
+      <c r="B190" s="18">
         <v>548.36146384740505</v>
       </c>
-      <c r="C190" s="21">
+      <c r="C190" s="20">
         <v>598.57582236642759</v>
       </c>
     </row>
@@ -2695,10 +2683,10 @@
       <c r="A191" s="4">
         <v>41275</v>
       </c>
-      <c r="B191" s="19">
+      <c r="B191" s="18">
         <v>554.26219577110749</v>
       </c>
-      <c r="C191" s="21">
+      <c r="C191" s="20">
         <v>604.86300525820002</v>
       </c>
     </row>
@@ -2706,10 +2694,10 @@
       <c r="A192" s="4">
         <v>41306</v>
       </c>
-      <c r="B192" s="19">
+      <c r="B192" s="18">
         <v>573.32304746414309</v>
       </c>
-      <c r="C192" s="21">
+      <c r="C192" s="20">
         <v>625.50485781477585</v>
       </c>
     </row>
@@ -2717,10 +2705,10 @@
       <c r="A193" s="4">
         <v>41334</v>
       </c>
-      <c r="B193" s="19">
+      <c r="B193" s="18">
         <v>588.19884222977953</v>
       </c>
-      <c r="C193" s="21">
+      <c r="C193" s="20">
         <v>641.57136609953284</v>
       </c>
     </row>
@@ -2728,10 +2716,10 @@
       <c r="A194" s="4">
         <v>41365</v>
       </c>
-      <c r="B194" s="19">
+      <c r="B194" s="18">
         <v>590.23186751441665</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="20">
         <v>643.62511533560371</v>
       </c>
     </row>
@@ -2739,10 +2727,10 @@
       <c r="A195" s="4">
         <v>41395</v>
       </c>
-      <c r="B195" s="19">
+      <c r="B195" s="18">
         <v>598.10612154369369</v>
       </c>
-      <c r="C195" s="21">
+      <c r="C195" s="20">
         <v>652.04579309646954</v>
       </c>
     </row>
@@ -2750,10 +2738,10 @@
       <c r="A196" s="4">
         <v>41426</v>
       </c>
-      <c r="B196" s="19">
+      <c r="B196" s="18">
         <v>617.58349549016702</v>
       </c>
-      <c r="C196" s="21">
+      <c r="C196" s="20">
         <v>673.10846510199224</v>
       </c>
     </row>
@@ -2761,10 +2749,10 @@
       <c r="A197" s="4">
         <v>41456</v>
       </c>
-      <c r="B197" s="19">
+      <c r="B197" s="18">
         <v>634.00637291142982</v>
       </c>
-      <c r="C197" s="21">
+      <c r="C197" s="20">
         <v>690.8321103284394</v>
       </c>
     </row>
@@ -2772,10 +2760,10 @@
       <c r="A198" s="4">
         <v>41487</v>
       </c>
-      <c r="B198" s="19">
+      <c r="B198" s="18">
         <v>644.82603430430277</v>
       </c>
-      <c r="C198" s="21">
+      <c r="C198" s="20">
         <v>702.44281873687999</v>
       </c>
     </row>
@@ -2783,10 +2771,10 @@
       <c r="A199" s="4">
         <v>41518</v>
       </c>
-      <c r="B199" s="19">
+      <c r="B199" s="18">
         <v>655.0407467100398</v>
       </c>
-      <c r="C199" s="21">
+      <c r="C199" s="20">
         <v>713.3887409411883</v>
       </c>
     </row>
@@ -2794,10 +2782,10 @@
       <c r="A200" s="4">
         <v>41548</v>
       </c>
-      <c r="B200" s="19">
+      <c r="B200" s="18">
         <v>687.3608901375128</v>
       </c>
-      <c r="C200" s="21">
+      <c r="C200" s="20">
         <v>748.39740634117857</v>
       </c>
     </row>
@@ -2805,10 +2793,10 @@
       <c r="A201" s="4">
         <v>41579</v>
       </c>
-      <c r="B201" s="19">
+      <c r="B201" s="18">
         <v>716.88438414904635</v>
       </c>
-      <c r="C201" s="21">
+      <c r="C201" s="20">
         <v>780.34400359191579</v>
       </c>
     </row>
@@ -2816,10 +2804,10 @@
       <c r="A202" s="4">
         <v>41609</v>
       </c>
-      <c r="B202" s="19">
+      <c r="B202" s="18">
         <v>738.89064320567786</v>
       </c>
-      <c r="C202" s="21">
+      <c r="C202" s="20">
         <v>804.09371098210522</v>
       </c>
     </row>
@@ -2827,10 +2815,10 @@
       <c r="A203" s="4">
         <v>41640</v>
       </c>
-      <c r="B203" s="19">
+      <c r="B203" s="18">
         <v>763.48529055153028</v>
       </c>
-      <c r="C203" s="21">
+      <c r="C203" s="20">
         <v>830.64736916787092</v>
       </c>
     </row>
@@ -2838,10 +2826,10 @@
       <c r="A204" s="4">
         <v>41671</v>
       </c>
-      <c r="B204" s="19">
+      <c r="B204" s="18">
         <v>830.5057045689781</v>
       </c>
-      <c r="C204" s="21">
+      <c r="C204" s="20">
         <v>903.33359244723204</v>
       </c>
     </row>
@@ -2849,10 +2837,10 @@
       <c r="A205" s="4">
         <v>41699</v>
       </c>
-      <c r="B205" s="19">
+      <c r="B205" s="18">
         <v>858.80938340972932</v>
       </c>
-      <c r="C205" s="21">
+      <c r="C205" s="20">
         <v>933.88165222781015</v>
       </c>
     </row>
@@ -2860,10 +2848,10 @@
       <c r="A206" s="4">
         <v>41730</v>
       </c>
-      <c r="B206" s="19">
+      <c r="B206" s="18">
         <v>868.96459263640406</v>
       </c>
-      <c r="C206" s="21">
+      <c r="C206" s="20">
         <v>944.68422676791829</v>
       </c>
     </row>
@@ -2871,10 +2859,10 @@
       <c r="A207" s="4">
         <v>41760</v>
       </c>
-      <c r="B207" s="19">
+      <c r="B207" s="18">
         <v>883.47345113115477</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="20">
         <v>960.21305820341581</v>
       </c>
     </row>
@@ -2882,10 +2870,10 @@
       <c r="A208" s="4">
         <v>41791</v>
       </c>
-      <c r="B208" s="19">
+      <c r="B208" s="18">
         <v>899.35088274434418</v>
       </c>
-      <c r="C208" s="21">
+      <c r="C208" s="20">
         <v>977.22099961615879</v>
       </c>
     </row>
@@ -2893,10 +2881,10 @@
       <c r="A209" s="4">
         <v>41821</v>
       </c>
-      <c r="B209" s="19">
+      <c r="B209" s="18">
         <v>911.69779239982256</v>
       </c>
-      <c r="C209" s="21">
+      <c r="C209" s="20">
         <v>990.3849910759883</v>
       </c>
     </row>
@@ -2904,10 +2892,10 @@
       <c r="A210" s="4">
         <v>41852</v>
       </c>
-      <c r="B210" s="19">
+      <c r="B210" s="18">
         <v>934.53709596332999</v>
       </c>
-      <c r="C210" s="21">
+      <c r="C210" s="20">
         <v>1014.9372994276551</v>
       </c>
     </row>
@@ -2915,10 +2903,10 @@
       <c r="A211" s="4">
         <v>41883</v>
       </c>
-      <c r="B211" s="19">
+      <c r="B211" s="18">
         <v>960.80774951944409</v>
       </c>
-      <c r="C211" s="21">
+      <c r="C211" s="20">
         <v>1043.2026621537805</v>
       </c>
     </row>
@@ -2926,10 +2914,10 @@
       <c r="A212" s="4">
         <v>41913</v>
       </c>
-      <c r="B212" s="19">
+      <c r="B212" s="18">
         <v>969.69355759278403</v>
       </c>
-      <c r="C212" s="21">
+      <c r="C212" s="20">
         <v>1052.5826833142864</v>
       </c>
     </row>
@@ -2937,10 +2925,10 @@
       <c r="A213" s="4">
         <v>41944</v>
       </c>
-      <c r="B213" s="19">
+      <c r="B213" s="18">
         <v>982.12972201685648</v>
       </c>
-      <c r="C213" s="21">
+      <c r="C213" s="20">
         <v>1065.8107248302881</v>
       </c>
     </row>
@@ -2948,10 +2936,10 @@
       <c r="A214" s="4">
         <v>41974</v>
       </c>
-      <c r="B214" s="19">
+      <c r="B214" s="18">
         <v>995.02207748040814</v>
       </c>
-      <c r="C214" s="21">
+      <c r="C214" s="20">
         <v>1079.5269032705976</v>
       </c>
     </row>
@@ -2959,10 +2947,10 @@
       <c r="A215" s="4">
         <v>42005</v>
       </c>
-      <c r="B215" s="19">
+      <c r="B215" s="18">
         <v>1010.0862989797425</v>
       </c>
-      <c r="C215" s="21">
+      <c r="C215" s="20">
         <v>1095.591753256861</v>
       </c>
     </row>
@@ -2970,10 +2958,10 @@
       <c r="A216" s="4">
         <v>42036</v>
       </c>
-      <c r="B216" s="19">
+      <c r="B216" s="18">
         <v>1015.114317610528</v>
       </c>
-      <c r="C216" s="21">
+      <c r="C216" s="20">
         <v>1100.7653460910515</v>
       </c>
     </row>
@@ -2981,10 +2969,10 @@
       <c r="A217" s="4">
         <v>42064</v>
       </c>
-      <c r="B217" s="19">
+      <c r="B217" s="18">
         <v>1035.047882596481</v>
       </c>
-      <c r="C217" s="21">
+      <c r="C217" s="20">
         <v>1122.0953379652121</v>
       </c>
     </row>
@@ -2992,10 +2980,10 @@
       <c r="A218" s="4">
         <v>42095</v>
       </c>
-      <c r="B218" s="19">
+      <c r="B218" s="18">
         <v>1045.7981236137807</v>
       </c>
-      <c r="C218" s="21">
+      <c r="C218" s="20">
         <v>1133.4612992498378</v>
       </c>
     </row>
@@ -3003,10 +2991,10 @@
       <c r="A219" s="4">
         <v>42125</v>
       </c>
-      <c r="B219" s="19">
+      <c r="B219" s="18">
         <v>1065.7911917787965</v>
       </c>
-      <c r="C219" s="21">
+      <c r="C219" s="20">
         <v>1154.8364575556084</v>
       </c>
     </row>
@@ -3014,10 +3002,10 @@
       <c r="A220" s="4">
         <v>42156</v>
       </c>
-      <c r="B220" s="19">
+      <c r="B220" s="18">
         <v>1067.3878604169747</v>
       </c>
-      <c r="C220" s="21">
+      <c r="C220" s="20">
         <v>1156.2723476525346</v>
       </c>
     </row>
@@ -3025,10 +3013,10 @@
       <c r="A221" s="4">
         <v>42186</v>
       </c>
-      <c r="B221" s="19">
+      <c r="B221" s="18">
         <v>1096.1675646902265</v>
       </c>
-      <c r="C221" s="21">
+      <c r="C221" s="20">
         <v>1187.1465886631277</v>
       </c>
     </row>
@@ -3036,10 +3024,10 @@
       <c r="A222" s="4">
         <v>42217</v>
       </c>
-      <c r="B222" s="19">
+      <c r="B222" s="18">
         <v>1118.8382759130563</v>
       </c>
-      <c r="C222" s="21">
+      <c r="C222" s="20">
         <v>1211.390708280371</v>
       </c>
     </row>
@@ -3047,10 +3035,10 @@
       <c r="A223" s="4">
         <v>42248</v>
       </c>
-      <c r="B223" s="19">
+      <c r="B223" s="18">
         <v>1134.3487712553597</v>
       </c>
-      <c r="C223" s="21">
+      <c r="C223" s="20">
         <v>1227.8718672128446</v>
       </c>
     </row>
@@ -3058,10 +3046,10 @@
       <c r="A224" s="4">
         <v>42278</v>
       </c>
-      <c r="B224" s="19">
+      <c r="B224" s="18">
         <v>1139.6247197989057</v>
       </c>
-      <c r="C224" s="21">
+      <c r="C224" s="20">
         <v>1233.2690320370011</v>
       </c>
     </row>
@@ -3069,10 +3057,10 @@
       <c r="A225" s="4">
         <v>42309</v>
       </c>
-      <c r="B225" s="19">
+      <c r="B225" s="18">
         <v>1177.8455951500812</v>
       </c>
-      <c r="C225" s="21">
+      <c r="C225" s="20">
         <v>1274.3063540211506</v>
       </c>
     </row>
@@ -3080,10 +3068,10 @@
       <c r="A226" s="4">
         <v>42339</v>
       </c>
-      <c r="B226" s="19">
+      <c r="B226" s="18">
         <v>1300.1444625166346</v>
       </c>
-      <c r="C226" s="21">
+      <c r="C226" s="20">
         <v>1406.2632204171118</v>
       </c>
     </row>
@@ -3091,10 +3079,10 @@
       <c r="A227" s="4">
         <v>42370</v>
       </c>
-      <c r="B227" s="19">
+      <c r="B227" s="18">
         <v>1322.5374922371727</v>
       </c>
-      <c r="C227" s="21">
+      <c r="C227" s="20">
         <v>1430.1201359285731</v>
       </c>
     </row>
@@ -3102,10 +3090,10 @@
       <c r="A228" s="4">
         <v>42401</v>
       </c>
-      <c r="B228" s="19">
+      <c r="B228" s="18">
         <v>1354.3320242495934</v>
       </c>
-      <c r="C228" s="21">
+      <c r="C228" s="20">
         <v>1464.1285118047192</v>
       </c>
     </row>
@@ -3113,10 +3101,10 @@
       <c r="A229" s="4">
         <v>42430</v>
       </c>
-      <c r="B229" s="19">
+      <c r="B229" s="18">
         <v>1387.3860402188377</v>
       </c>
-      <c r="C229" s="21">
+      <c r="C229" s="20">
         <v>1499.4807395244882</v>
       </c>
     </row>
@@ -3124,10 +3112,10 @@
       <c r="A230" s="4">
         <v>42461</v>
       </c>
-      <c r="B230" s="19">
+      <c r="B230" s="18">
         <v>1401.6668031938489</v>
       </c>
-      <c r="C230" s="21">
+      <c r="C230" s="20">
         <v>1514.53</v>
       </c>
     </row>
@@ -3135,10 +3123,10 @@
       <c r="A231" s="4">
         <v>42491</v>
       </c>
-      <c r="B231" s="19">
+      <c r="B231" s="18">
         <v>1459.6968196151352</v>
       </c>
-      <c r="C231" s="21">
+      <c r="C231" s="20">
         <v>1561.35</v>
       </c>
     </row>
@@ -3146,10 +3134,10 @@
       <c r="A232" s="4">
         <v>42522</v>
       </c>
-      <c r="B232" s="19">
+      <c r="B232" s="18">
         <v>1505.6939482578496</v>
       </c>
-      <c r="C232" s="21">
+      <c r="C232" s="20">
         <v>1614.32</v>
       </c>
     </row>
@@ -3157,10 +3145,10 @@
       <c r="A233" s="4">
         <v>42552</v>
       </c>
-      <c r="B233" s="19">
+      <c r="B233" s="18">
         <v>1543.1128394749182</v>
       </c>
-      <c r="C233" s="21">
+      <c r="C233" s="20">
         <v>1666.48</v>
       </c>
     </row>
@@ -3168,10 +3156,10 @@
       <c r="A234" s="4">
         <v>42583</v>
       </c>
-      <c r="B234" s="19">
+      <c r="B234" s="18">
         <v>1544.6471583640582</v>
       </c>
-      <c r="C234" s="21">
+      <c r="C234" s="20">
         <v>1675.05</v>
       </c>
     </row>
@@ -3179,10 +3167,10 @@
       <c r="A235" s="4">
         <v>42614</v>
       </c>
-      <c r="B235" s="19">
+      <c r="B235" s="18">
         <v>1579.4937136845349</v>
       </c>
-      <c r="C235" s="21">
+      <c r="C235" s="20">
         <v>1711.22</v>
       </c>
     </row>
@@ -3190,10 +3178,10 @@
       <c r="A236" s="4">
         <v>42644</v>
       </c>
-      <c r="B236" s="19">
+      <c r="B236" s="18">
         <v>1597.7384844920771</v>
       </c>
-      <c r="C236" s="21">
+      <c r="C236" s="20">
         <v>1739.34</v>
       </c>
     </row>
@@ -3201,10 +3189,10 @@
       <c r="A237" s="4">
         <v>42675</v>
       </c>
-      <c r="B237" s="19">
+      <c r="B237" s="18">
         <v>1617.8468202083104</v>
       </c>
-      <c r="C237" s="21">
+      <c r="C237" s="20">
         <v>1762.65</v>
       </c>
     </row>
@@ -3212,10 +3200,10 @@
       <c r="A238" s="4">
         <v>42705</v>
       </c>
-      <c r="B238" s="19">
+      <c r="B238" s="18">
         <v>1621.9015741436694</v>
       </c>
-      <c r="C238" s="21">
+      <c r="C238" s="20">
         <v>1766.62</v>
       </c>
     </row>
@@ -3223,10 +3211,10 @@
       <c r="A239" s="4">
         <v>42736</v>
       </c>
-      <c r="B239" s="19">
+      <c r="B239" s="18">
         <v>1643.098205816153</v>
       </c>
-      <c r="C239" s="21">
+      <c r="C239" s="20">
         <v>1789.15</v>
       </c>
     </row>
@@ -3234,10 +3222,10 @@
       <c r="A240" s="4">
         <v>42767</v>
       </c>
-      <c r="B240" s="19">
+      <c r="B240" s="18">
         <v>1673.2282713590198</v>
       </c>
-      <c r="C240" s="21">
+      <c r="C240" s="20">
         <v>1821.02</v>
       </c>
     </row>
@@ -3245,10 +3233,10 @@
       <c r="A241" s="4">
         <v>42795</v>
       </c>
-      <c r="B241" s="19">
+      <c r="B241" s="18">
         <v>1731.9930091933934</v>
       </c>
-      <c r="C241" s="21">
+      <c r="C241" s="20">
         <v>1876.56</v>
       </c>
     </row>
@@ -3256,10 +3244,10 @@
       <c r="A242" s="4">
         <v>42826</v>
       </c>
-      <c r="B242" s="19">
+      <c r="B242" s="18">
         <v>1771.3500727915637</v>
       </c>
-      <c r="C242" s="21">
+      <c r="C242" s="20">
         <v>1915.47</v>
       </c>
     </row>
@@ -3267,10 +3255,10 @@
       <c r="A243" s="4">
         <v>42856</v>
       </c>
-      <c r="B243" s="19">
+      <c r="B243" s="18">
         <v>1789.9549057485658</v>
       </c>
-      <c r="C243" s="21">
+      <c r="C243" s="20">
         <v>1937.24</v>
       </c>
     </row>
@@ -3278,10 +3266,10 @@
       <c r="A244" s="4">
         <v>42887</v>
       </c>
-      <c r="B244" s="19">
+      <c r="B244" s="18">
         <v>1813.1610734714134</v>
       </c>
-      <c r="C244" s="21">
+      <c r="C244" s="20">
         <v>1956.42</v>
       </c>
     </row>
@@ -3289,10 +3277,10 @@
       <c r="A245" s="4">
         <v>42917</v>
       </c>
-      <c r="B245" s="19">
+      <c r="B245" s="18">
         <v>1835.3097613679192</v>
       </c>
-      <c r="C245" s="21">
+      <c r="C245" s="20">
         <v>1984.64</v>
       </c>
     </row>
@@ -3300,10 +3288,10 @@
       <c r="A246" s="4">
         <v>42948</v>
       </c>
-      <c r="B246" s="19">
+      <c r="B246" s="18">
         <v>1875.8086436742867</v>
       </c>
-      <c r="C246" s="21">
+      <c r="C246" s="20">
         <v>2021.98</v>
       </c>
     </row>
@@ -3311,10 +3299,10 @@
       <c r="A247" s="4">
         <v>42979</v>
       </c>
-      <c r="B247" s="19">
+      <c r="B247" s="18">
         <v>1911.7272759352725</v>
       </c>
-      <c r="C247" s="21">
+      <c r="C247" s="20">
         <v>2049.39</v>
       </c>
     </row>
@@ -3322,10 +3310,10 @@
       <c r="A248" s="4">
         <v>43009</v>
       </c>
-      <c r="B248" s="19">
+      <c r="B248" s="18">
         <v>1941.3350891712648</v>
       </c>
-      <c r="C248" s="21">
+      <c r="C248" s="20">
         <v>2079.23</v>
       </c>
     </row>
@@ -3333,10 +3321,10 @@
       <c r="A249" s="4">
         <v>43040</v>
       </c>
-      <c r="B249" s="19">
+      <c r="B249" s="18">
         <v>1961.0249742813694</v>
       </c>
-      <c r="C249" s="21">
+      <c r="C249" s="20">
         <v>2125.84</v>
       </c>
     </row>
@@ -3344,10 +3332,10 @@
       <c r="A250" s="4">
         <v>43070</v>
       </c>
-      <c r="B250" s="19">
+      <c r="B250" s="18">
         <v>1971.4667766157063</v>
       </c>
-      <c r="C250" s="21">
+      <c r="C250" s="20">
         <v>2150.29</v>
       </c>
     </row>
@@ -3355,10 +3343,10 @@
       <c r="A251" s="4">
         <v>43101</v>
       </c>
-      <c r="B251" s="19">
+      <c r="B251" s="18">
         <v>2022.9686392010642</v>
       </c>
-      <c r="C251" s="21">
+      <c r="C251" s="20">
         <v>2197.2600000000002</v>
       </c>
     </row>
@@ -3366,10 +3354,10 @@
       <c r="A252" s="4">
         <v>43132</v>
       </c>
-      <c r="B252" s="19">
+      <c r="B252" s="18">
         <v>2072.4690752439292</v>
       </c>
-      <c r="C252" s="21">
+      <c r="C252" s="20">
         <v>2261.23</v>
       </c>
     </row>
@@ -3377,10 +3365,10 @@
       <c r="A253" s="4">
         <v>43160</v>
       </c>
-      <c r="B253" s="19">
+      <c r="B253" s="18">
         <v>2113.1739390502125</v>
       </c>
-      <c r="C253" s="21">
+      <c r="C253" s="20">
         <v>2294.56</v>
       </c>
     </row>
@@ -3388,10 +3376,10 @@
       <c r="A254" s="4">
         <v>43191</v>
       </c>
-      <c r="B254" s="19">
+      <c r="B254" s="18">
         <v>2130.1276762047364</v>
       </c>
-      <c r="C254" s="21">
+      <c r="C254" s="20">
         <v>2308.11</v>
       </c>
     </row>
@@ -3399,10 +3387,10 @@
       <c r="A255" s="4">
         <v>43221</v>
       </c>
-      <c r="B255" s="19">
+      <c r="B255" s="18">
         <v>2208.5271544956931</v>
       </c>
-      <c r="C255" s="21">
+      <c r="C255" s="20">
         <v>2418.65</v>
       </c>
     </row>
@@ -3410,10 +3398,10 @@
       <c r="A256" s="4">
         <v>43252</v>
       </c>
-      <c r="B256" s="19">
+      <c r="B256" s="18">
         <v>2313.3522751341729</v>
       </c>
-      <c r="C256" s="21">
+      <c r="C256" s="20">
         <v>2537.4499999999998</v>
       </c>
     </row>
@@ -3421,10 +3409,10 @@
       <c r="A257" s="4">
         <v>43282</v>
       </c>
-      <c r="B257" s="19">
+      <c r="B257" s="18">
         <v>2404.7967077859666</v>
       </c>
-      <c r="C257" s="21">
+      <c r="C257" s="20">
         <v>2627.37</v>
       </c>
     </row>
@@ -3432,10 +3420,10 @@
       <c r="A258" s="4">
         <v>43313</v>
       </c>
-      <c r="B258" s="19">
+      <c r="B258" s="18">
         <v>2488.6165811377118</v>
       </c>
-      <c r="C258" s="21">
+      <c r="C258" s="20">
         <v>2701.48</v>
       </c>
     </row>
@@ -3443,10 +3431,10 @@
       <c r="A259" s="4">
         <v>43344</v>
       </c>
-      <c r="B259" s="19">
+      <c r="B259" s="18">
         <v>2669.0742159816591</v>
       </c>
-      <c r="C259" s="21">
+      <c r="C259" s="20">
         <v>2931.88</v>
       </c>
     </row>
@@ -3454,10 +3442,10 @@
       <c r="A260" s="4">
         <v>43374</v>
       </c>
-      <c r="B260" s="19">
+      <c r="B260" s="18">
         <v>2831.1913878251894</v>
       </c>
-      <c r="C260" s="21">
+      <c r="C260" s="20">
         <v>3150.62</v>
       </c>
     </row>
@@ -3465,10 +3453,10 @@
       <c r="A261" s="4">
         <v>43405</v>
       </c>
-      <c r="B261" s="19">
+      <c r="B261" s="18">
         <v>2920.3424516511445</v>
       </c>
-      <c r="C261" s="21">
+      <c r="C261" s="20">
         <v>3276.02</v>
       </c>
     </row>
@@ -3476,10 +3464,10 @@
       <c r="A262" s="4">
         <v>43435</v>
       </c>
-      <c r="B262" s="19">
+      <c r="B262" s="18">
         <v>2967.6987338129907</v>
       </c>
-      <c r="C262" s="21">
+      <c r="C262" s="20">
         <v>3300.17</v>
       </c>
     </row>
@@ -3487,10 +3475,10 @@
       <c r="A263" s="4">
         <v>43466</v>
       </c>
-      <c r="B263" s="19">
+      <c r="B263" s="18">
         <v>3080.2408621412465</v>
       </c>
-      <c r="C263" s="21">
+      <c r="C263" s="20">
         <v>3423.03</v>
       </c>
     </row>
@@ -3498,10 +3486,10 @@
       <c r="A264" s="4">
         <v>43497</v>
       </c>
-      <c r="B264" s="19">
+      <c r="B264" s="18">
         <v>3249.2640908874805</v>
       </c>
-      <c r="C264" s="21">
+      <c r="C264" s="20">
         <v>3597.77</v>
       </c>
     </row>
@@ -3509,10 +3497,10 @@
       <c r="A265" s="4">
         <v>43525</v>
       </c>
-      <c r="B265" s="19">
+      <c r="B265" s="18">
         <v>3438.9487237867311</v>
       </c>
-      <c r="C265" s="21">
+      <c r="C265" s="20">
         <v>3767.01</v>
       </c>
     </row>
@@ -3520,10 +3508,10 @@
       <c r="A266" s="4">
         <v>43556</v>
       </c>
-      <c r="B266" s="19">
+      <c r="B266" s="18">
         <v>3508.0790345814567</v>
       </c>
-      <c r="C266" s="21">
+      <c r="C266" s="20">
         <v>3833.28</v>
       </c>
     </row>
@@ -3531,10 +3519,10 @@
       <c r="A267" s="4">
         <v>43586</v>
       </c>
-      <c r="B267" s="19">
+      <c r="B267" s="18">
         <v>3600.5841908627408</v>
       </c>
-      <c r="C267" s="21">
+      <c r="C267" s="20">
         <v>3911.58</v>
       </c>
     </row>
@@ -3542,10 +3530,10 @@
       <c r="A268" s="4">
         <v>43617</v>
       </c>
-      <c r="B268" s="19">
+      <c r="B268" s="18">
         <v>3697.2138428470721</v>
       </c>
-      <c r="C268" s="21">
+      <c r="C268" s="20">
         <v>4016.09</v>
       </c>
     </row>
@@ -3553,10 +3541,10 @@
       <c r="A269" s="4">
         <v>43647</v>
       </c>
-      <c r="B269" s="19">
+      <c r="B269" s="18">
         <v>3790.3839787737552</v>
       </c>
-      <c r="C269" s="21">
+      <c r="C269" s="20">
         <v>4133.91</v>
       </c>
     </row>
@@ -3564,10 +3552,10 @@
       <c r="A270" s="4">
         <v>43678</v>
       </c>
-      <c r="B270" s="19">
+      <c r="B270" s="18">
         <v>3953.9641058371631</v>
       </c>
-      <c r="C270" s="21">
+      <c r="C270" s="20">
         <v>4290.72</v>
       </c>
     </row>
@@ -3575,10 +3563,10 @@
       <c r="A271" s="4">
         <v>43709</v>
       </c>
-      <c r="B271" s="19">
+      <c r="B271" s="18">
         <v>4177.6454176320394</v>
       </c>
-      <c r="C271" s="21">
+      <c r="C271" s="20">
         <v>4502.88</v>
       </c>
     </row>
@@ -3586,10 +3574,10 @@
       <c r="A272" s="4">
         <v>43739</v>
       </c>
-      <c r="B272" s="19">
+      <c r="B272" s="18">
         <v>4281.4892878181618</v>
       </c>
-      <c r="C272" s="21">
+      <c r="C272" s="20">
         <v>4596.2</v>
       </c>
     </row>
@@ -3597,10 +3585,10 @@
       <c r="A273" s="4">
         <v>43770</v>
       </c>
-      <c r="B273" s="19">
+      <c r="B273" s="18">
         <v>4523.9587074479177</v>
       </c>
-      <c r="C273" s="21">
+      <c r="C273" s="20">
         <v>4886.34</v>
       </c>
     </row>
@@ -3608,10 +3596,10 @@
       <c r="A274" s="4">
         <v>43800</v>
       </c>
-      <c r="B274" s="19">
+      <c r="B274" s="18">
         <v>4651.0038796521658</v>
       </c>
-      <c r="C274" s="21">
+      <c r="C274" s="20">
         <v>5043.41</v>
       </c>
     </row>
@@ -3619,10 +3607,10 @@
       <c r="A275" s="4">
         <v>43831</v>
       </c>
-      <c r="B275" s="19">
+      <c r="B275" s="18">
         <v>4866.9811589698602</v>
       </c>
-      <c r="C275" s="21">
+      <c r="C275" s="20">
         <v>5332.94</v>
       </c>
     </row>
@@ -3630,10 +3618,10 @@
       <c r="A276" s="4">
         <v>43862</v>
       </c>
-      <c r="B276" s="19">
+      <c r="B276" s="18">
         <v>4985.433496634294</v>
       </c>
-      <c r="C276" s="21">
+      <c r="C276" s="20">
         <v>5432.32</v>
       </c>
     </row>
@@ -3641,10 +3629,10 @@
       <c r="A277" s="4">
         <v>43891</v>
       </c>
-      <c r="B277" s="19">
+      <c r="B277" s="18">
         <v>5174.2958254354535</v>
       </c>
-      <c r="C277" s="21">
+      <c r="C277" s="20">
         <v>5615.94</v>
       </c>
     </row>
@@ -3652,10 +3640,10 @@
       <c r="A278" s="4">
         <v>43922</v>
       </c>
-      <c r="B278" s="19">
+      <c r="B278" s="18">
         <v>5340.1774308325712</v>
       </c>
-      <c r="C278" s="21">
+      <c r="C278" s="20">
         <v>5791.79</v>
       </c>
     </row>
@@ -3663,10 +3651,10 @@
       <c r="A279" s="4">
         <v>43952</v>
       </c>
-      <c r="B279" s="19">
+      <c r="B279" s="18">
         <v>5353.7170651735232</v>
       </c>
-      <c r="C279" s="21">
+      <c r="C279" s="20">
         <v>5785.01</v>
       </c>
     </row>
@@ -3674,10 +3662,10 @@
       <c r="A280" s="4">
         <v>43983</v>
       </c>
-      <c r="B280" s="19">
+      <c r="B280" s="18">
         <v>5415.9851104080453</v>
       </c>
-      <c r="C280" s="21">
+      <c r="C280" s="20">
         <v>5834.66</v>
       </c>
     </row>
@@ -3685,10 +3673,10 @@
       <c r="A281" s="4">
         <v>44013</v>
       </c>
-      <c r="B281" s="19">
+      <c r="B281" s="18">
         <v>5487.9537489575241</v>
       </c>
-      <c r="C281" s="21">
+      <c r="C281" s="20">
         <v>5929.29</v>
       </c>
     </row>
@@ -3696,10 +3684,10 @@
       <c r="A282" s="4">
         <v>44044</v>
       </c>
-      <c r="B282" s="19">
+      <c r="B282" s="18">
         <v>5691.1163839379078</v>
       </c>
-      <c r="C282" s="21">
+      <c r="C282" s="20">
         <v>6081.69</v>
       </c>
     </row>
@@ -3707,10 +3695,10 @@
       <c r="A283" s="4">
         <v>44075</v>
       </c>
-      <c r="B283" s="19">
+      <c r="B283" s="18">
         <v>5851.9100840969368</v>
       </c>
-      <c r="C283" s="21">
+      <c r="C283" s="20">
         <v>6288.17</v>
       </c>
     </row>
@@ -3718,10 +3706,10 @@
       <c r="A284" s="4">
         <v>44105</v>
       </c>
-      <c r="B284" s="19">
+      <c r="B284" s="18">
         <v>6132.1438599790545</v>
       </c>
-      <c r="C284" s="21">
+      <c r="C284" s="20">
         <v>6702.33</v>
       </c>
     </row>
@@ -3729,10 +3717,10 @@
       <c r="A285" s="4">
         <v>44136</v>
       </c>
-      <c r="B285" s="19">
+      <c r="B285" s="18">
         <v>6263.7838793428509</v>
       </c>
-      <c r="C285" s="21">
+      <c r="C285" s="20">
         <v>6981.61</v>
       </c>
     </row>
@@ -3740,10 +3728,10 @@
       <c r="A286" s="4">
         <v>44166</v>
       </c>
-      <c r="B286" s="19">
+      <c r="B286" s="18">
         <v>6437.2138146660327</v>
       </c>
-      <c r="C286" s="21">
+      <c r="C286" s="20">
         <v>7340.12</v>
       </c>
     </row>
@@ -3751,10 +3739,10 @@
       <c r="A287" s="4">
         <v>44197</v>
       </c>
-      <c r="B287" s="19">
+      <c r="B287" s="18">
         <v>6694.157083943448</v>
       </c>
-      <c r="C287" s="21">
+      <c r="C287" s="20">
         <v>7677.09</v>
       </c>
     </row>
@@ -3762,10 +3750,10 @@
       <c r="A288" s="4">
         <v>44228</v>
       </c>
-      <c r="B288" s="19">
+      <c r="B288" s="18">
         <v>6961.2404818624091</v>
       </c>
-      <c r="C288" s="21">
+      <c r="C288" s="20">
         <v>7953.14</v>
       </c>
     </row>
@@ -3773,10 +3761,10 @@
       <c r="A289" s="4">
         <v>44256</v>
       </c>
-      <c r="B289" s="19">
+      <c r="B289" s="18">
         <v>7301.7846677790576</v>
       </c>
-      <c r="C289" s="21">
+      <c r="C289" s="20">
         <v>8312.33</v>
       </c>
     </row>
@@ -3784,10 +3772,10 @@
       <c r="A290" s="4">
         <v>44287</v>
       </c>
-      <c r="B290" s="19">
+      <c r="B290" s="18">
         <v>7645.438039013341</v>
       </c>
-      <c r="C290" s="21">
+      <c r="C290" s="20">
         <v>8633.31</v>
       </c>
     </row>
@@ -3795,10 +3783,10 @@
       <c r="A291" s="4">
         <v>44317</v>
       </c>
-      <c r="B291" s="19">
+      <c r="B291" s="18">
         <v>7878.7550680602044</v>
       </c>
-      <c r="C291" s="21">
+      <c r="C291" s="20">
         <v>8874.89</v>
       </c>
     </row>
@@ -3806,10 +3794,10 @@
       <c r="A292" s="4">
         <v>44348</v>
       </c>
-      <c r="B292" s="19">
+      <c r="B292" s="18">
         <v>8149.2785192179226</v>
       </c>
-      <c r="C292" s="21">
+      <c r="C292" s="20">
         <v>9195.41</v>
       </c>
     </row>
@@ -3817,10 +3805,10 @@
       <c r="A293" s="4">
         <v>44378</v>
       </c>
-      <c r="B293" s="19">
+      <c r="B293" s="18">
         <v>8440.247661619298</v>
       </c>
-      <c r="C293" s="21">
+      <c r="C293" s="20">
         <v>9386.0400000000009</v>
       </c>
     </row>
@@ -3828,10 +3816,10 @@
       <c r="A294" s="4">
         <v>44409</v>
       </c>
-      <c r="B294" s="19">
+      <c r="B294" s="18">
         <v>8561.3047732118066</v>
       </c>
-      <c r="C294" s="21">
+      <c r="C294" s="20">
         <v>9454.1299999999992</v>
       </c>
     </row>
@@ -3839,10 +3827,10 @@
       <c r="A295" s="4">
         <v>44440</v>
       </c>
-      <c r="B295" s="19">
+      <c r="B295" s="18">
         <v>8840.8508628264863</v>
       </c>
-      <c r="C295" s="21">
+      <c r="C295" s="20">
         <v>9713.2099999999991</v>
       </c>
     </row>
@@ -3850,10 +3838,10 @@
       <c r="A296" s="4">
         <v>44470</v>
       </c>
-      <c r="B296" s="19">
+      <c r="B296" s="18">
         <v>9155.2564829742405</v>
       </c>
-      <c r="C296" s="21">
+      <c r="C296" s="20">
         <v>10008.200000000001</v>
       </c>
     </row>
@@ -3861,10 +3849,10 @@
       <c r="A297" s="4">
         <v>44501</v>
       </c>
-      <c r="B297" s="19">
+      <c r="B297" s="18">
         <v>9320.4066107614181</v>
       </c>
-      <c r="C297" s="21">
+      <c r="C297" s="20">
         <v>10266.790000000001</v>
       </c>
     </row>
@@ -3872,10 +3860,10 @@
       <c r="A298" s="4">
         <v>44531</v>
       </c>
-      <c r="B298" s="19">
+      <c r="B298" s="18">
         <v>9681.6527483704358</v>
       </c>
-      <c r="C298" s="21">
+      <c r="C298" s="20">
         <v>10667.86</v>
       </c>
     </row>
@@ -3883,10 +3871,10 @@
       <c r="A299" s="4">
         <v>44562</v>
       </c>
-      <c r="B299" s="19">
+      <c r="B299" s="18">
         <v>10181.738526430876</v>
       </c>
-      <c r="C299" s="21">
+      <c r="C299" s="20">
         <v>11111.27</v>
       </c>
     </row>
@@ -3894,10 +3882,10 @@
       <c r="A300" s="4">
         <v>44593</v>
       </c>
-      <c r="B300" s="19">
+      <c r="B300" s="18">
         <v>11052.698049844454</v>
       </c>
-      <c r="C300" s="21">
+      <c r="C300" s="20">
         <v>12108.08</v>
       </c>
     </row>
@@ -3905,10 +3893,10 @@
       <c r="A301" s="4">
         <v>44621</v>
       </c>
-      <c r="B301" s="19">
+      <c r="B301" s="18">
         <v>11723.844165028251</v>
       </c>
-      <c r="C301" s="21">
+      <c r="C301" s="20">
         <v>12900.45</v>
       </c>
     </row>
@@ -3916,10 +3904,10 @@
       <c r="A302" s="4">
         <v>44652</v>
       </c>
-      <c r="B302" s="19">
+      <c r="B302" s="18">
         <v>12653.19538891415</v>
       </c>
-      <c r="C302" s="21">
+      <c r="C302" s="20">
         <v>13762.77</v>
       </c>
     </row>
@@ -3927,10 +3915,10 @@
       <c r="A303" s="4">
         <v>44682</v>
       </c>
-      <c r="B303" s="19">
+      <c r="B303" s="18">
         <v>12961.090696143287</v>
       </c>
-      <c r="C303" s="21">
+      <c r="C303" s="20">
         <v>14400.84</v>
       </c>
     </row>
@@ -3938,10 +3926,10 @@
       <c r="A304" s="4">
         <v>44713</v>
       </c>
-      <c r="B304" s="19">
+      <c r="B304" s="18">
         <v>13604.220083535327</v>
       </c>
-      <c r="C304" s="21">
+      <c r="C304" s="20">
         <v>15056.75</v>
       </c>
     </row>
@@ -3949,10 +3937,10 @@
       <c r="A305" s="4">
         <v>44743</v>
       </c>
-      <c r="B305" s="19">
+      <c r="B305" s="18">
         <v>14405.927653536117</v>
       </c>
-      <c r="C305" s="21">
+      <c r="C305" s="20">
         <v>16008.28</v>
       </c>
     </row>
@@ -3960,10 +3948,10 @@
       <c r="A306" s="4">
         <v>44774</v>
       </c>
-      <c r="B306" s="19">
+      <c r="B306" s="18">
         <v>15394.333935638158</v>
       </c>
-      <c r="C306" s="21">
+      <c r="C306" s="20">
         <v>17148.8</v>
       </c>
     </row>
@@ -3971,10 +3959,10 @@
       <c r="A307" s="4">
         <v>44805</v>
       </c>
-      <c r="B307" s="19">
+      <c r="B307" s="18">
         <v>16481.105304408866</v>
       </c>
-      <c r="C307" s="21">
+      <c r="C307" s="20">
         <v>18359.84</v>
       </c>
     </row>
@@ -3982,10 +3970,10 @@
       <c r="A308" s="4">
         <v>44835</v>
       </c>
-      <c r="B308" s="19">
+      <c r="B308" s="18">
         <v>17585.82301409747</v>
       </c>
-      <c r="C308" s="21">
+      <c r="C308" s="20">
         <v>20098.919999999998</v>
       </c>
     </row>
@@ -3993,10 +3981,10 @@
       <c r="A309" s="4">
         <v>44866</v>
       </c>
-      <c r="B309" s="19">
+      <c r="B309" s="18">
         <v>18126.981827621526</v>
       </c>
-      <c r="C309" s="21">
+      <c r="C309" s="20">
         <v>20715.93</v>
       </c>
     </row>
@@ -4004,10 +3992,10 @@
       <c r="A310" s="4">
         <v>44896</v>
       </c>
-      <c r="B310" s="19">
+      <c r="B310" s="18">
         <v>19118.841138174921</v>
       </c>
-      <c r="C310" s="21">
+      <c r="C310" s="20">
         <v>21743.48</v>
       </c>
     </row>
@@ -4015,10 +4003,10 @@
       <c r="A311" s="4">
         <v>44927</v>
       </c>
-      <c r="B311" s="19">
+      <c r="B311" s="18">
         <v>20389.662653776304</v>
       </c>
-      <c r="C311" s="21">
+      <c r="C311" s="20">
         <v>23315.040000000001</v>
       </c>
     </row>
@@ -4026,10 +4014,10 @@
       <c r="A312" s="4">
         <v>44958</v>
       </c>
-      <c r="B312" s="19">
+      <c r="B312" s="18">
         <v>22474.260308991681</v>
       </c>
-      <c r="C312" s="21">
+      <c r="C312" s="20">
         <v>26046.32</v>
       </c>
     </row>
@@ -4037,10 +4025,10 @@
       <c r="A313" s="4">
         <v>44986</v>
       </c>
-      <c r="B313" s="19">
+      <c r="B313" s="18">
         <v>24647.799802729947</v>
       </c>
-      <c r="C313" s="21">
+      <c r="C313" s="20">
         <v>28388.12</v>
       </c>
     </row>
@@ -4048,10 +4036,10 @@
       <c r="A314" s="4">
         <v>45017</v>
       </c>
-      <c r="B314" s="19">
+      <c r="B314" s="18">
         <v>27149.357536527747</v>
       </c>
-      <c r="C314" s="21">
+      <c r="C314" s="20">
         <v>30468.76</v>
       </c>
     </row>
@@ -4059,10 +4047,10 @@
       <c r="A315" s="4">
         <v>45047</v>
       </c>
-      <c r="B315" s="19">
+      <c r="B315" s="18">
         <v>28692.032462577645</v>
       </c>
-      <c r="C315" s="21">
+      <c r="C315" s="20">
         <v>32055.87</v>
       </c>
     </row>
@@ -4070,10 +4058,10 @@
       <c r="A316" s="4">
         <v>45078</v>
       </c>
-      <c r="B316" s="19">
+      <c r="B316" s="18">
         <v>29720.796521549106</v>
       </c>
-      <c r="C316" s="21">
+      <c r="C316" s="20">
         <v>33730.51</v>
       </c>
     </row>
@@ -4081,10 +4069,10 @@
       <c r="A317" s="4">
         <v>45108</v>
       </c>
-      <c r="B317" s="19">
+      <c r="B317" s="18">
         <v>31491.947100447051</v>
       </c>
-      <c r="C317" s="21">
+      <c r="C317" s="20">
         <v>36130.15</v>
       </c>
     </row>
@@ -4092,10 +4080,10 @@
       <c r="A318" s="4">
         <v>45139</v>
       </c>
-      <c r="B318" s="19">
+      <c r="B318" s="18">
         <v>36267.345965131317</v>
       </c>
-      <c r="C318" s="21">
+      <c r="C318" s="20">
         <v>42262.25</v>
       </c>
     </row>
@@ -4103,10 +4091,10 @@
       <c r="A319" s="4">
         <v>45170</v>
       </c>
-      <c r="B319" s="19">
+      <c r="B319" s="18">
         <v>41043.130842390223</v>
       </c>
-      <c r="C319" s="21">
+      <c r="C319" s="20">
         <v>47857.79</v>
       </c>
     </row>
@@ -4114,10 +4102,10 @@
       <c r="A320" s="4">
         <v>45200</v>
       </c>
-      <c r="B320" s="19">
+      <c r="B320" s="18">
         <v>44613.812033930481</v>
       </c>
-      <c r="C320" s="21">
+      <c r="C320" s="20">
         <v>51974.93</v>
       </c>
     </row>
@@ -4125,10 +4113,10 @@
       <c r="A321" s="4">
         <v>45231</v>
       </c>
-      <c r="B321" s="19">
+      <c r="B321" s="18">
         <v>52088.870934481594</v>
       </c>
-      <c r="C321" s="21">
+      <c r="C321" s="20">
         <v>59886.86</v>
       </c>
     </row>
@@ -4136,11 +4124,143 @@
       <c r="A322" s="4">
         <v>45261</v>
       </c>
-      <c r="B322" s="19">
+      <c r="B322" s="18">
         <v>67475.812242744811</v>
       </c>
-      <c r="C322" s="21">
+      <c r="C322" s="20">
         <v>77889.58</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B323" s="27">
+        <v>80712.050431433701</v>
+      </c>
+      <c r="C323" s="20">
+        <v>92414.67</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B324" s="27">
+        <v>91513.283995518199</v>
+      </c>
+      <c r="C324" s="20">
+        <v>104482.59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B325" s="27">
+        <v>102071.49831533931</v>
+      </c>
+      <c r="C325" s="20">
+        <v>115873.35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B326" s="27">
+        <v>107918.05936804472</v>
+      </c>
+      <c r="C326" s="20">
+        <v>120726.29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="4">
+        <v>45413</v>
+      </c>
+      <c r="B327" s="27">
+        <v>113787.32379898497</v>
+      </c>
+      <c r="C327" s="20">
+        <v>125235.49</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="4">
+        <v>45444</v>
+      </c>
+      <c r="B328" s="27">
+        <v>116262.19638618341</v>
+      </c>
+      <c r="C328" s="20">
+        <v>127287.79</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B329" s="27">
+        <v>120499.83918684616</v>
+      </c>
+      <c r="C329" s="20">
+        <v>131293.57</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B330" s="27">
+        <v>123951.77447653707</v>
+      </c>
+      <c r="C330" s="20">
+        <v>136399.29999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="4">
+        <v>45536</v>
+      </c>
+      <c r="B331" s="27">
+        <v>126682.04466081274</v>
+      </c>
+      <c r="C331" s="20">
+        <v>138744.31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="4">
+        <v>45566</v>
+      </c>
+      <c r="B332" s="27">
+        <v>128195.8173008114</v>
+      </c>
+      <c r="C332" s="20">
+        <v>140653.57</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B333" s="27">
+        <v>129421.56941547047</v>
+      </c>
+      <c r="C333" s="20">
+        <v>142148.73000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B334" s="27">
+        <v>132279.08913154874</v>
+      </c>
+      <c r="C334" s="20">
+        <v>145408.95999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4156,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D46B19-DE45-48AA-9B87-B58C189B44BA}">
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322:C322"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323:C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4205,28 +4325,28 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -4238,8 +4358,8 @@
       <c r="C10" s="10">
         <v>4477.8832849174996</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -4251,8 +4371,8 @@
       <c r="C11" s="10">
         <v>286890.20625145244</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -4264,8 +4384,8 @@
       <c r="C12" s="10">
         <v>628608.61898675351</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -4277,8 +4397,8 @@
       <c r="C13" s="10">
         <v>1731488.1942830582</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -4290,8 +4410,8 @@
       <c r="C14" s="10">
         <v>45.565412096211944</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -4303,8 +4423,8 @@
       <c r="C15" s="10">
         <v>76.300510370671617</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -4316,8 +4436,8 @@
       <c r="C16" s="10">
         <v>114.34124854752497</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -4329,8 +4449,8 @@
       <c r="C17" s="10">
         <v>179.88670288171042</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -4342,8 +4462,8 @@
       <c r="C18" s="10">
         <v>397.42951429235416</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
@@ -4355,8 +4475,8 @@
       <c r="C19" s="10">
         <v>971.6492621426911</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -4368,8 +4488,8 @@
       <c r="C20" s="10">
         <v>2228.0216244480594</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -4381,8 +4501,8 @@
       <c r="C21" s="10">
         <v>38137.856634905882</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -4394,8 +4514,8 @@
       <c r="C22" s="10">
         <v>378857.03491749935</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -4407,8 +4527,8 @@
       <c r="C23" s="10">
         <v>724865.30385777354</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
@@ -4420,8 +4540,8 @@
       <c r="C24" s="10">
         <v>1390251.3606785964</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
@@ -4433,8 +4553,8 @@
       <c r="C25" s="10">
         <v>1558804.0564722286</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -4446,7 +4566,7 @@
       <c r="C26" s="10">
         <v>173.76578988496399</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -4458,7 +4578,7 @@
       <c r="C27" s="10">
         <v>183.92119541598885</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -4470,7 +4590,7 @@
       <c r="C28" s="10">
         <v>194.02274012316988</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -4482,7 +4602,7 @@
       <c r="C29" s="10">
         <v>200.23764553799677</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -4494,7 +4614,7 @@
       <c r="C30" s="10">
         <v>202.42650717522659</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -4506,7 +4626,7 @@
       <c r="C31" s="10">
         <v>207.63284226121309</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
@@ -4518,7 +4638,7 @@
       <c r="C32" s="10">
         <v>211.8369435858703</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
@@ -4530,7 +4650,7 @@
       <c r="C33" s="10">
         <v>212.13666322914244</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
@@ -4542,7 +4662,7 @@
       <c r="C34" s="10">
         <v>211.38810338717175</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
@@ -4554,7 +4674,7 @@
       <c r="C35" s="10">
         <v>212.57092932256566</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -4566,7 +4686,7 @@
       <c r="C36" s="10">
         <v>212.75468978038575</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -4578,7 +4698,7 @@
       <c r="C37" s="10">
         <v>213.78459321984658</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -4590,7 +4710,7 @@
       <c r="C38" s="10">
         <v>215.24390471763886</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -4602,7 +4722,7 @@
       <c r="C39" s="10">
         <v>216.14940021496628</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -4614,7 +4734,7 @@
       <c r="C40" s="10">
         <v>213.65680577504065</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -4626,7 +4746,7 @@
       <c r="C41" s="10">
         <v>211.76259452707416</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -4638,7 +4758,7 @@
       <c r="C42" s="10">
         <v>211.35853273878692</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -4650,7 +4770,7 @@
       <c r="C43" s="10">
         <v>210.28300601324659</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -4662,7 +4782,7 @@
       <c r="C44" s="10">
         <v>210.66974785033696</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -4674,7 +4794,7 @@
       <c r="C45" s="10">
         <v>209.63477515686731</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -4686,7 +4806,7 @@
       <c r="C46" s="10">
         <v>209.38131245642575</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
@@ -4698,7 +4818,7 @@
       <c r="C47" s="10">
         <v>209.55028759005344</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -4710,7 +4830,7 @@
       <c r="C48" s="10">
         <v>209.08560597257727</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -4722,7 +4842,7 @@
       <c r="C49" s="10">
         <v>209.48692191494308</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -4734,7 +4854,7 @@
       <c r="C50" s="10">
         <v>210.88096676737163</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -4746,7 +4866,7 @@
       <c r="C51" s="10">
         <v>211.00769811759238</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -4758,7 +4878,7 @@
       <c r="C52" s="10">
         <v>209.48692191494308</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -4770,7 +4890,7 @@
       <c r="C53" s="10">
         <v>208.81102138043224</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -4782,7 +4902,7 @@
       <c r="C54" s="10">
         <v>208.07175517081109</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -4794,7 +4914,7 @@
       <c r="C55" s="10">
         <v>207.90278003718339</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -4806,7 +4926,7 @@
       <c r="C56" s="10">
         <v>206.99453869393446</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
@@ -4818,7 +4938,7 @@
       <c r="C57" s="10">
         <v>206.3186381594237</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
@@ -4830,7 +4950,7 @@
       <c r="C58" s="10">
         <v>206.14966302579597</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
@@ -4842,7 +4962,7 @@
       <c r="C59" s="10">
         <v>210.88096676737163</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
@@ -4854,7 +4974,7 @@
       <c r="C60" s="10">
         <v>217.49211887055543</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -4866,7 +4986,7 @@
       <c r="C61" s="10">
         <v>226.1098506855682</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -4878,7 +4998,7 @@
       <c r="C62" s="10">
         <v>249.59739425981874</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -4890,7 +5010,7 @@
       <c r="C63" s="10">
         <v>259.60917092726004</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -4902,7 +5022,7 @@
       <c r="C64" s="10">
         <v>269.00841273530096</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -4914,7 +5034,7 @@
       <c r="C65" s="10">
         <v>277.58390076690677</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
@@ -4926,7 +5046,7 @@
       <c r="C66" s="10">
         <v>284.08944341157331</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -4938,7 +5058,7 @@
       <c r="C67" s="10">
         <v>287.9125058099001</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
@@ -4950,7 +5070,7 @@
       <c r="C68" s="10">
         <v>288.54616256100394</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
@@ -4962,7 +5082,7 @@
       <c r="C69" s="10">
         <v>290.02469498024635</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -4974,7 +5094,7 @@
       <c r="C70" s="10">
         <v>290.57386416453636</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
@@ -4986,7 +5106,7 @@
       <c r="C71" s="10">
         <v>294.39692656286309</v>
       </c>
-      <c r="D71" s="14"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
@@ -4998,7 +5118,7 @@
       <c r="C72" s="10">
         <v>296.06555600743661</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
@@ -5010,7 +5130,7 @@
       <c r="C73" s="10">
         <v>297.79755112712064</v>
       </c>
-      <c r="D73" s="14"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
@@ -5022,7 +5142,7 @@
       <c r="C74" s="10">
         <v>297.96652626074831</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -5034,7 +5154,7 @@
       <c r="C75" s="10">
         <v>296.80482221705785</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
@@ -5046,7 +5166,7 @@
       <c r="C76" s="10">
         <v>296.55135951661634</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
@@ -5058,7 +5178,7 @@
       <c r="C77" s="10">
         <v>297.88203869393448</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
@@ -5070,7 +5190,7 @@
       <c r="C78" s="10">
         <v>297.94540436904487</v>
       </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -5082,7 +5202,7 @@
       <c r="C79" s="10">
         <v>298.07213571926565</v>
       </c>
-      <c r="D79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
@@ -5094,7 +5214,7 @@
       <c r="C80" s="10">
         <v>299.82525273065301</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
@@ -5106,7 +5226,7 @@
       <c r="C81" s="10">
         <v>300.56451894027424</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
@@ -5118,7 +5238,7 @@
       <c r="C82" s="10">
         <v>301.19817569137808</v>
       </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
@@ -5130,7 +5250,7 @@
       <c r="C83" s="10">
         <v>302.46548919358588</v>
       </c>
-      <c r="D83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
@@ -5142,7 +5262,7 @@
       <c r="C84" s="10">
         <v>302.76119567743433</v>
       </c>
-      <c r="D84" s="14"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -5154,7 +5274,7 @@
       <c r="C85" s="10">
         <v>304.57767836393214</v>
       </c>
-      <c r="D85" s="14"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
@@ -5166,7 +5286,7 @@
       <c r="C86" s="10">
         <v>307.17567104345807</v>
       </c>
-      <c r="D86" s="14"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
@@ -5178,7 +5298,7 @@
       <c r="C87" s="10">
         <v>309.01327562165932</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
@@ -5190,7 +5310,7 @@
       <c r="C88" s="10">
         <v>311.16770857541246</v>
       </c>
-      <c r="D88" s="14"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -5202,7 +5322,7 @@
       <c r="C89" s="10">
         <v>312.60399721124799</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
@@ -5214,7 +5334,7 @@
       <c r="C90" s="10">
         <v>313.68121368812456</v>
       </c>
-      <c r="D90" s="14"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
@@ -5226,7 +5346,7 @@
       <c r="C91" s="10">
         <v>315.66667150825003</v>
       </c>
-      <c r="D91" s="14"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
@@ -5238,7 +5358,7 @@
       <c r="C92" s="10">
         <v>316.91286311875433</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
@@ -5250,7 +5370,7 @@
       <c r="C93" s="10">
         <v>316.91286311875433</v>
       </c>
-      <c r="D93" s="14"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
@@ -5262,7 +5382,7 @@
       <c r="C94" s="10">
         <v>319.57422147339071</v>
       </c>
-      <c r="D94" s="14"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
@@ -5274,7 +5394,7 @@
       <c r="C95" s="10">
         <v>324.30552521496628</v>
       </c>
-      <c r="D95" s="14"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
@@ -5286,7 +5406,7 @@
       <c r="C96" s="10">
         <v>327.38932140367189</v>
       </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
@@ -5298,7 +5418,7 @@
       <c r="C97" s="10">
         <v>332.43745352079941</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
@@ -5310,7 +5430,7 @@
       <c r="C98" s="10">
         <v>334.0638391819661</v>
       </c>
-      <c r="D98" s="14"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
@@ -5322,7 +5442,7 @@
       <c r="C99" s="10">
         <v>336.07041889379508</v>
       </c>
-      <c r="D99" s="14"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
@@ -5334,7 +5454,7 @@
       <c r="C100" s="10">
         <v>339.15421508250057</v>
       </c>
-      <c r="D100" s="14"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
@@ -5346,7 +5466,7 @@
       <c r="C101" s="10">
         <v>342.55483964675807</v>
       </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
@@ -5358,7 +5478,7 @@
       <c r="C102" s="10">
         <v>344.05449395770393</v>
       </c>
-      <c r="D102" s="14"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
@@ -5370,7 +5490,7 @@
       <c r="C103" s="10">
         <v>348.06765338136182</v>
       </c>
-      <c r="D103" s="14"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
@@ -5382,7 +5502,7 @@
       <c r="C104" s="10">
         <v>350.77125551940503</v>
       </c>
-      <c r="D104" s="14"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
@@ -5394,7 +5514,7 @@
       <c r="C105" s="10">
         <v>355.0167557518011</v>
       </c>
-      <c r="D105" s="14"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
@@ -5406,7 +5526,7 @@
       <c r="C106" s="10">
         <v>358.96654950034855</v>
       </c>
-      <c r="D106" s="14"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
@@ -5418,7 +5538,7 @@
       <c r="C107" s="10">
         <v>363.55</v>
       </c>
-      <c r="D107" s="14"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
@@ -5430,7 +5550,7 @@
       <c r="C108" s="10">
         <v>364.71</v>
       </c>
-      <c r="D108" s="14"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
@@ -5442,7 +5562,7 @@
       <c r="C109" s="10">
         <v>368.51</v>
       </c>
-      <c r="D109" s="14"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
@@ -5454,7 +5574,7 @@
       <c r="C110" s="10">
         <v>368.24</v>
       </c>
-      <c r="D110" s="14"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
@@ -5466,7 +5586,7 @@
       <c r="C111" s="10">
         <v>366.56</v>
       </c>
-      <c r="D111" s="14"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
@@ -5478,7 +5598,7 @@
       <c r="C112" s="10">
         <v>367.48</v>
       </c>
-      <c r="D112" s="14"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
@@ -5490,7 +5610,7 @@
       <c r="C113" s="10">
         <v>367.05</v>
       </c>
-      <c r="D113" s="14"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
@@ -5502,7 +5622,7 @@
       <c r="C114" s="10">
         <v>368.51</v>
       </c>
-      <c r="D114" s="14"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
@@ -5514,7 +5634,7 @@
       <c r="C115" s="10">
         <v>371.38</v>
       </c>
-      <c r="D115" s="14"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
@@ -5526,7 +5646,7 @@
       <c r="C116" s="10">
         <v>375.9</v>
       </c>
-      <c r="D116" s="14"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
@@ -5538,7 +5658,7 @@
       <c r="C117" s="10">
         <v>382.27</v>
       </c>
-      <c r="D117" s="14"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
@@ -5550,7 +5670,7 @@
       <c r="C118" s="10">
         <v>389.28</v>
       </c>
-      <c r="D118" s="14"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
@@ -5562,7 +5682,7 @@
       <c r="C119" s="10">
         <v>393.66498737842409</v>
       </c>
-      <c r="D119" s="14"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
@@ -5574,7 +5694,7 @@
       <c r="C120" s="10">
         <v>396.38649581386687</v>
       </c>
-      <c r="D120" s="14"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
@@ -5586,7 +5706,7 @@
       <c r="C121" s="10">
         <v>400.61023012872084</v>
       </c>
-      <c r="D121" s="14"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
@@ -5598,7 +5718,7 @@
       <c r="C122" s="10">
         <v>410.31564839323158</v>
       </c>
-      <c r="D122" s="14"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
@@ -5610,7 +5730,7 @@
       <c r="C123" s="10">
         <v>419.70325585358978</v>
       </c>
-      <c r="D123" s="14"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
@@ -5622,7 +5742,7 @@
       <c r="C124" s="10">
         <v>431.56483838311556</v>
       </c>
-      <c r="D124" s="14"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
@@ -5634,7 +5754,7 @@
       <c r="C125" s="10">
         <v>443.00410640238329</v>
       </c>
-      <c r="D125" s="14"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
@@ -5646,7 +5766,7 @@
       <c r="C126" s="10">
         <v>457.55168219730086</v>
       </c>
-      <c r="D126" s="14"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
@@ -5658,7 +5778,7 @@
       <c r="C127" s="10">
         <v>466.76779396847741</v>
       </c>
-      <c r="D127" s="14"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
@@ -5670,7 +5790,7 @@
       <c r="C128" s="10">
         <v>473.51053875155168</v>
       </c>
-      <c r="D128" s="14"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
@@ -5682,7 +5802,7 @@
       <c r="C129" s="10">
         <v>470.72181429153835</v>
       </c>
-      <c r="D129" s="14"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
@@ -5694,7 +5814,7 @@
       <c r="C130" s="10">
         <v>475.23982962111472</v>
       </c>
-      <c r="D130" s="14"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
@@ -5706,7 +5826,7 @@
       <c r="C131" s="10">
         <v>485.0828760687682</v>
       </c>
-      <c r="D131" s="14"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
@@ -5718,7 +5838,7 @@
       <c r="C132" s="10">
         <v>496.99702638567442</v>
       </c>
-      <c r="D132" s="14"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
@@ -5730,7 +5850,7 @@
       <c r="C133" s="10">
         <v>518.99421363332863</v>
       </c>
-      <c r="D133" s="14"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
@@ -5742,7 +5862,7 @@
       <c r="C134" s="10">
         <v>534.70282039933795</v>
       </c>
-      <c r="D134" s="14"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
@@ -5754,7 +5874,7 @@
       <c r="C135" s="10">
         <v>535.12138222019837</v>
       </c>
-      <c r="D135" s="14"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
@@ -5766,7 +5886,7 @@
       <c r="C136" s="10">
         <v>547.92967526132531</v>
       </c>
-      <c r="D136" s="14"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
@@ -5778,7 +5898,7 @@
       <c r="C137" s="10">
         <v>555.40712591225076</v>
       </c>
-      <c r="D137" s="14"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
@@ -5790,7 +5910,7 @@
       <c r="C138" s="10">
         <v>559.98700325704658</v>
       </c>
-      <c r="D138" s="14"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
@@ -5802,7 +5922,7 @@
       <c r="C139" s="10">
         <v>566.81034068404199</v>
       </c>
-      <c r="D139" s="14"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
@@ -5814,7 +5934,7 @@
       <c r="C140" s="10">
         <v>568.89523407313663</v>
       </c>
-      <c r="D140" s="14"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
@@ -5826,7 +5946,7 @@
       <c r="C141" s="10">
         <v>572.8131333283992</v>
       </c>
-      <c r="D141" s="14"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
@@ -5838,7 +5958,7 @@
       <c r="C142" s="10">
         <v>575.12535114121431</v>
       </c>
-      <c r="D142" s="14"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
@@ -5850,7 +5970,7 @@
       <c r="C143" s="10">
         <v>581.69509818107724</v>
       </c>
-      <c r="D143" s="14"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
@@ -5862,7 +5982,7 @@
       <c r="C144" s="10">
         <v>581.98038224458901</v>
       </c>
-      <c r="D144" s="14"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
@@ -5874,7 +5994,7 @@
       <c r="C145" s="10">
         <v>596.58881302832572</v>
       </c>
-      <c r="D145" s="14"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
@@ -5886,7 +6006,7 @@
       <c r="C146" s="10">
         <v>607.55193900905192</v>
       </c>
-      <c r="D146" s="14"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
@@ -5898,7 +6018,7 @@
       <c r="C147" s="10">
         <v>612.42068173881171</v>
       </c>
-      <c r="D147" s="14"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
@@ -5910,7 +6030,7 @@
       <c r="C148" s="10">
         <v>615.35253343124225</v>
       </c>
-      <c r="D148" s="14"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
@@ -5922,7 +6042,7 @@
       <c r="C149" s="10">
         <v>621.14526066469716</v>
       </c>
-      <c r="D149" s="14"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
@@ -5934,7 +6054,7 @@
       <c r="C150" s="10">
         <v>632.96464019934911</v>
       </c>
-      <c r="D150" s="14"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
@@ -5946,7 +6066,7 @@
       <c r="C151" s="10">
         <v>642.56285722999064</v>
       </c>
-      <c r="D151" s="14"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
@@ -5958,7 +6078,7 @@
       <c r="C152" s="10">
         <v>653.09644227942738</v>
       </c>
-      <c r="D152" s="14"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
@@ -5970,7 +6090,7 @@
       <c r="C153" s="10">
         <v>660.35678082974664</v>
       </c>
-      <c r="D153" s="14"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
@@ -5982,7 +6102,7 @@
       <c r="C154" s="10">
         <v>682.50680513483155</v>
       </c>
-      <c r="D154" s="14"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
@@ -5994,7 +6114,7 @@
       <c r="C155" s="10">
         <v>698.6312899649397</v>
       </c>
-      <c r="D155" s="14"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
@@ -6006,7 +6126,7 @@
       <c r="C156" s="10">
         <v>731.82101200415195</v>
       </c>
-      <c r="D156" s="14"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
@@ -6018,7 +6138,7 @@
       <c r="C157" s="10">
         <v>752.7607885421063</v>
       </c>
-      <c r="D157" s="14"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
@@ -6030,7 +6150,7 @@
       <c r="C158" s="10">
         <v>762.83959261105554</v>
       </c>
-      <c r="D158" s="14"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
@@ -6042,7 +6162,7 @@
       <c r="C159" s="10">
         <v>774.82091956778629</v>
       </c>
-      <c r="D159" s="14"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
@@ -6054,7 +6174,7 @@
       <c r="C160" s="10">
         <v>784.10982886622185</v>
       </c>
-      <c r="D160" s="14"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
@@ -6066,7 +6186,7 @@
       <c r="C161" s="10">
         <v>795.28340004440042</v>
       </c>
-      <c r="D161" s="14"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
@@ -6078,7 +6198,7 @@
       <c r="C162" s="10">
         <v>803.96327827872767</v>
       </c>
-      <c r="D162" s="14"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
@@ -6090,7 +6210,7 @@
       <c r="C163" s="10">
         <v>816.30203496452862</v>
       </c>
-      <c r="D163" s="14"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
@@ -6102,7 +6222,7 @@
       <c r="C164" s="10">
         <v>844.79020909727865</v>
       </c>
-      <c r="D164" s="14"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
@@ -6114,7 +6234,7 @@
       <c r="C165" s="10">
         <v>861.6893988830426</v>
       </c>
-      <c r="D165" s="14"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
@@ -6126,7 +6246,7 @@
       <c r="C166" s="10">
         <v>876.53992674334393</v>
       </c>
-      <c r="D166" s="14"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
@@ -6138,7 +6258,7 @@
       <c r="C167" s="10">
         <v>885.34400572608502</v>
       </c>
-      <c r="D167" s="14"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
@@ -6150,7 +6270,7 @@
       <c r="C168" s="10">
         <v>895.15931258696139</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
@@ -6162,7 +6282,7 @@
       <c r="C169" s="10">
         <v>920.95056950692299</v>
       </c>
-      <c r="D169" s="14"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
@@ -6174,7 +6294,7 @@
       <c r="C170" s="10">
         <v>944.48454446596463</v>
       </c>
-      <c r="D170" s="14"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
@@ -6186,7 +6306,7 @@
       <c r="C171" s="10">
         <v>960.15449608978076</v>
       </c>
-      <c r="D171" s="14"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
@@ -6198,7 +6318,7 @@
       <c r="C172" s="10">
         <v>974.34700234730394</v>
       </c>
-      <c r="D172" s="14"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
@@ -6210,7 +6330,7 @@
       <c r="C173" s="10">
         <v>991.11123533393493</v>
       </c>
-      <c r="D173" s="14"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
@@ -6222,7 +6342,7 @@
       <c r="C174" s="10">
         <v>1014.2838238910579</v>
       </c>
-      <c r="D174" s="14"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
@@ -6234,7 +6354,7 @@
       <c r="C175" s="10">
         <v>1033.4498333756803</v>
       </c>
-      <c r="D175" s="14"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
@@ -6246,7 +6366,7 @@
       <c r="C176" s="10">
         <v>1044.0752609462882</v>
       </c>
-      <c r="D176" s="14"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
@@ -6258,7 +6378,7 @@
       <c r="C177" s="10">
         <v>1057.8363971914425</v>
       </c>
-      <c r="D177" s="14"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
@@ -6270,7 +6390,7 @@
       <c r="C178" s="10">
         <v>1077.4691034622092</v>
       </c>
-      <c r="D178" s="14"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
@@ -6282,7 +6402,7 @@
       <c r="C179" s="10">
         <v>1088.8798199298074</v>
       </c>
-      <c r="D179" s="14"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
@@ -6294,7 +6414,7 @@
       <c r="C180" s="10">
         <v>1104.9556270658982</v>
       </c>
-      <c r="D180" s="14"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
@@ -6306,7 +6426,7 @@
       <c r="C181" s="10">
         <v>1146.2288710049143</v>
       </c>
-      <c r="D181" s="14"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
@@ -6318,7 +6438,7 @@
       <c r="C182" s="10">
         <v>1170.340276617437</v>
       </c>
-      <c r="D182" s="14"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
@@ -6330,7 +6450,7 @@
       <c r="C183" s="10">
         <v>1191.6711376368805</v>
       </c>
-      <c r="D183" s="14"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
@@ -6342,7 +6462,7 @@
       <c r="C184" s="10">
         <v>1207.6553699575331</v>
       </c>
-      <c r="D184" s="14"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
@@ -6354,7 +6474,7 @@
       <c r="C185" s="10">
         <v>1227.8130107331451</v>
       </c>
-      <c r="D185" s="14"/>
+      <c r="D185" s="13"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
@@ -6366,7 +6486,7 @@
       <c r="C186" s="10">
         <v>1250.6489909524691</v>
       </c>
-      <c r="D186" s="14"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
@@ -6378,7 +6498,7 @@
       <c r="C187" s="10">
         <v>1269.6265476544925</v>
       </c>
-      <c r="D187" s="14"/>
+      <c r="D187" s="13"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
@@ -6390,7 +6510,7 @@
       <c r="C188" s="10">
         <v>1288.16767519718</v>
       </c>
-      <c r="D188" s="14"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
@@ -6402,7 +6522,7 @@
       <c r="C189" s="10">
         <v>1313.4928105644908</v>
       </c>
-      <c r="D189" s="14"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
@@ -6414,7 +6534,7 @@
       <c r="C190" s="10">
         <v>1328.223278770552</v>
       </c>
-      <c r="D190" s="14"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
@@ -6426,7 +6546,7 @@
       <c r="C191" s="10">
         <v>1349.554945798312</v>
       </c>
-      <c r="D191" s="14"/>
+      <c r="D191" s="13"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
@@ -6438,7 +6558,7 @@
       <c r="C192" s="10">
         <v>1384.2154979075526</v>
       </c>
-      <c r="D192" s="14"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
@@ -6450,7 +6570,7 @@
       <c r="C193" s="10">
         <v>1422.1782416807828</v>
       </c>
-      <c r="D193" s="14"/>
+      <c r="D193" s="13"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
@@ -6462,7 +6582,7 @@
       <c r="C194" s="10">
         <v>1443.8559646120241</v>
       </c>
-      <c r="D194" s="14"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
@@ -6474,7 +6594,7 @@
       <c r="C195" s="10">
         <v>1470.662835074394</v>
       </c>
-      <c r="D195" s="14"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
@@ -6486,7 +6606,7 @@
       <c r="C196" s="10">
         <v>1505.6778245976936</v>
       </c>
-      <c r="D196" s="14"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
@@ -6498,7 +6618,7 @@
       <c r="C197" s="10">
         <v>1540.0476308954039</v>
       </c>
-      <c r="D197" s="14"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
@@ -6510,7 +6630,7 @@
       <c r="C198" s="10">
         <v>1568.6190942404126</v>
       </c>
-      <c r="D198" s="14"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
@@ -6522,7 +6642,7 @@
       <c r="C199" s="10">
         <v>1598.135828399179</v>
       </c>
-      <c r="D199" s="14"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
@@ -6534,7 +6654,7 @@
       <c r="C200" s="10">
         <v>1652.4331031493323</v>
       </c>
-      <c r="D200" s="14"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
@@ -6546,7 +6666,7 @@
       <c r="C201" s="10">
         <v>1701.4093085042296</v>
       </c>
-      <c r="D201" s="14"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
@@ -6558,7 +6678,7 @@
       <c r="C202" s="10">
         <v>1755.1938708782332</v>
       </c>
-      <c r="D202" s="14"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
@@ -6570,7 +6690,7 @@
       <c r="C203" s="10">
         <v>1824.277588954621</v>
       </c>
-      <c r="D203" s="14"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
@@ -6582,7 +6702,7 @@
       <c r="C204" s="10">
         <v>1948.3573018733891</v>
       </c>
-      <c r="D204" s="14"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
@@ -6594,7 +6714,7 @@
       <c r="C205" s="10">
         <v>2035.1081318826871</v>
       </c>
-      <c r="D205" s="14"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
@@ -6606,7 +6726,7 @@
       <c r="C206" s="10">
         <v>2077.1520215788651</v>
       </c>
-      <c r="D206" s="14"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
@@ -6618,7 +6738,7 @@
       <c r="C207" s="10">
         <v>2130.1826634777008</v>
       </c>
-      <c r="D207" s="14"/>
+      <c r="D207" s="13"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
@@ -6630,7 +6750,7 @@
       <c r="C208" s="10">
         <v>2170.4158052921716</v>
       </c>
-      <c r="D208" s="14"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
@@ -6642,7 +6762,7 @@
       <c r="C209" s="10">
         <v>2211.097284503327</v>
       </c>
-      <c r="D209" s="14"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
@@ -6654,7 +6774,7 @@
       <c r="C210" s="10">
         <v>2268.3626776911733</v>
       </c>
-      <c r="D210" s="14"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
@@ -6666,7 +6786,7 @@
       <c r="C211" s="10">
         <v>2336.1678919870246</v>
       </c>
-      <c r="D211" s="14"/>
+      <c r="D211" s="13"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
@@ -6678,7 +6798,7 @@
       <c r="C212" s="10">
         <v>2360.806660143056</v>
       </c>
-      <c r="D212" s="14"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
@@ -6690,7 +6810,7 @@
       <c r="C213" s="10">
         <v>2394.3729708313899</v>
       </c>
-      <c r="D213" s="14"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
@@ -6702,7 +6822,7 @@
       <c r="C214" s="10">
         <v>2429.3356405657196</v>
       </c>
-      <c r="D214" s="14"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
@@ -6714,7 +6834,7 @@
       <c r="C215" s="10">
         <v>2467.1102203771984</v>
       </c>
-      <c r="D215" s="14"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
@@ -6726,7 +6846,7 @@
       <c r="C216" s="10">
         <v>2512.6779600538662</v>
       </c>
-      <c r="D216" s="14"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
@@ -6738,7 +6858,7 @@
       <c r="C217" s="10">
         <v>2571.630572791863</v>
       </c>
-      <c r="D217" s="14"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
@@ -6750,7 +6870,7 @@
       <c r="C218" s="10">
         <v>2622.4593491141168</v>
       </c>
-      <c r="D218" s="14"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
@@ -6762,7 +6882,7 @@
       <c r="C219" s="10">
         <v>2675.146908273106</v>
       </c>
-      <c r="D219" s="14"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
@@ -6774,7 +6894,7 @@
       <c r="C220" s="10">
         <v>2703.5098458241669</v>
       </c>
-      <c r="D220" s="14"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
@@ -6786,7 +6906,7 @@
       <c r="C221" s="10">
         <v>2768.8128845592828</v>
       </c>
-      <c r="D221" s="14"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
@@ -6798,7 +6918,7 @@
       <c r="C222" s="10">
         <v>2820.6229969993251</v>
       </c>
-      <c r="D222" s="14"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
@@ -6810,7 +6930,7 @@
       <c r="C223" s="10">
         <v>2886.5915027632368</v>
       </c>
-      <c r="D223" s="14"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
@@ -6822,7 +6942,7 @@
       <c r="C224" s="10">
         <v>2925.6256761815616</v>
       </c>
-      <c r="D224" s="14"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
@@ -6834,7 +6954,7 @@
       <c r="C225" s="10">
         <v>3007.5590838227949</v>
       </c>
-      <c r="D225" s="14"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
@@ -6846,7 +6966,7 @@
       <c r="C226" s="10">
         <v>3206.5528482227819</v>
       </c>
-      <c r="D226" s="14"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
@@ -6858,7 +6978,7 @@
       <c r="C227" s="10">
         <v>3330.864526886658</v>
       </c>
-      <c r="D227" s="14"/>
+      <c r="D227" s="13"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
@@ -6870,7 +6990,7 @@
       <c r="C228" s="10">
         <v>3426.8697734503567</v>
       </c>
-      <c r="D228" s="14"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
@@ -6882,7 +7002,7 @@
       <c r="C229" s="10">
         <v>3535.2136456378062</v>
       </c>
-      <c r="D229" s="14"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
@@ -6894,7 +7014,7 @@
       <c r="C230" s="10">
         <v>3663.6599999999994</v>
       </c>
-      <c r="D230" s="14"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
@@ -6906,7 +7026,7 @@
       <c r="C231" s="10">
         <v>3830.77</v>
       </c>
-      <c r="D231" s="14"/>
+      <c r="D231" s="13"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
@@ -6918,7 +7038,7 @@
       <c r="C232" s="10">
         <v>3942.67</v>
       </c>
-      <c r="D232" s="14"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
@@ -6930,7 +7050,7 @@
       <c r="C233" s="10">
         <v>4032.88</v>
       </c>
-      <c r="D233" s="14"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
@@ -6942,7 +7062,7 @@
       <c r="C234" s="10">
         <v>4036.87</v>
       </c>
-      <c r="D234" s="14"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
@@ -6954,7 +7074,7 @@
       <c r="C235" s="10">
         <v>4089.82</v>
       </c>
-      <c r="D235" s="14"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
@@ -6966,7 +7086,7 @@
       <c r="C236" s="10">
         <v>4191.8100000000004</v>
       </c>
-      <c r="D236" s="14"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
@@ -6978,7 +7098,7 @@
       <c r="C237" s="10">
         <v>4247.99</v>
       </c>
-      <c r="D237" s="14"/>
+      <c r="D237" s="13"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
@@ -6990,7 +7110,7 @@
       <c r="C238" s="10">
         <v>4257.55</v>
       </c>
-      <c r="D238" s="14"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
@@ -7002,7 +7122,7 @@
       <c r="C239" s="10">
         <v>4311.8500000000004</v>
       </c>
-      <c r="D239" s="14"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
@@ -7014,7 +7134,7 @@
       <c r="C240" s="10">
         <v>4425.08</v>
       </c>
-      <c r="D240" s="14"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
@@ -7026,7 +7146,7 @@
       <c r="C241" s="10">
         <v>4560.04</v>
       </c>
-      <c r="D241" s="14"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
@@ -7038,7 +7158,7 @@
       <c r="C242" s="10">
         <v>4692.8999999999996</v>
       </c>
-      <c r="D242" s="14"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
@@ -7050,7 +7170,7 @@
       <c r="C243" s="10">
         <v>4746.24</v>
       </c>
-      <c r="D243" s="14"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
@@ -7062,7 +7182,7 @@
       <c r="C244" s="10">
         <v>4793.2299999999996</v>
       </c>
-      <c r="D244" s="14"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
@@ -7074,7 +7194,7 @@
       <c r="C245" s="10">
         <v>4862.37</v>
       </c>
-      <c r="D245" s="14"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
@@ -7086,7 +7206,7 @@
       <c r="C246" s="10">
         <v>4933.63</v>
       </c>
-      <c r="D246" s="14"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
@@ -7098,7 +7218,7 @@
       <c r="C247" s="10">
         <v>5000.51</v>
       </c>
-      <c r="D247" s="14"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
@@ -7110,7 +7230,7 @@
       <c r="C248" s="10">
         <v>5073.32</v>
       </c>
-      <c r="D248" s="14"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
@@ -7122,7 +7242,7 @@
       <c r="C249" s="10">
         <v>5187.05</v>
       </c>
-      <c r="D249" s="14"/>
+      <c r="D249" s="13"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
@@ -7134,7 +7254,7 @@
       <c r="C250" s="10">
         <v>5397.23</v>
       </c>
-      <c r="D250" s="14"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
@@ -7146,7 +7266,7 @@
       <c r="C251" s="10">
         <v>5493.15</v>
       </c>
-      <c r="D251" s="14"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
@@ -7158,7 +7278,7 @@
       <c r="C252" s="10">
         <v>5675.69</v>
       </c>
-      <c r="D252" s="14"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
@@ -7170,7 +7290,7 @@
       <c r="C253" s="10">
         <v>5782.29</v>
       </c>
-      <c r="D253" s="14"/>
+      <c r="D253" s="13"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
@@ -7182,7 +7302,7 @@
       <c r="C254" s="10">
         <v>5908.76</v>
       </c>
-      <c r="D254" s="14"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
@@ -7194,7 +7314,7 @@
       <c r="C255" s="10">
         <v>6095</v>
       </c>
-      <c r="D255" s="14"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
@@ -7206,7 +7326,7 @@
       <c r="C256" s="10">
         <v>6343.63</v>
       </c>
-      <c r="D256" s="14"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
@@ -7218,7 +7338,7 @@
       <c r="C257" s="10">
         <v>6515.88</v>
       </c>
-      <c r="D257" s="14"/>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
@@ -7230,7 +7350,7 @@
       <c r="C258" s="10">
         <v>6753.7</v>
       </c>
-      <c r="D258" s="14"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
@@ -7242,7 +7362,7 @@
       <c r="C259" s="10">
         <v>7300.38</v>
       </c>
-      <c r="D259" s="14"/>
+      <c r="D259" s="13"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
@@ -7254,7 +7374,7 @@
       <c r="C260" s="10">
         <v>7845.04</v>
       </c>
-      <c r="D260" s="14"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
@@ -7266,7 +7386,7 @@
       <c r="C261" s="10">
         <v>8157.29</v>
       </c>
-      <c r="D261" s="14"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
@@ -7278,7 +7398,7 @@
       <c r="C262" s="10">
         <v>8250.43</v>
       </c>
-      <c r="D262" s="14"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
@@ -7290,7 +7410,7 @@
       <c r="C263" s="10">
         <v>8557.58</v>
       </c>
-      <c r="D263" s="14"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
@@ -7302,7 +7422,7 @@
       <c r="C264" s="10">
         <v>8922.4699999999993</v>
       </c>
-      <c r="D264" s="14"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
@@ -7314,7 +7434,7 @@
       <c r="C265" s="10">
         <v>9304.51</v>
       </c>
-      <c r="D265" s="14"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
@@ -7326,7 +7446,7 @@
       <c r="C266" s="10">
         <v>9544.8700000000008</v>
       </c>
-      <c r="D266" s="14"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
@@ -7338,7 +7458,7 @@
       <c r="C267" s="10">
         <v>9818.07</v>
       </c>
-      <c r="D267" s="14"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
@@ -7350,7 +7470,7 @@
       <c r="C268" s="10">
         <v>10080.39</v>
       </c>
-      <c r="D268" s="14"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
@@ -7362,7 +7482,7 @@
       <c r="C269" s="10">
         <v>10334.780000000001</v>
       </c>
-      <c r="D269" s="14"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
@@ -7374,7 +7494,7 @@
       <c r="C270" s="10">
         <v>10683.89</v>
       </c>
-      <c r="D270" s="14"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
@@ -7386,7 +7506,7 @@
       <c r="C271" s="10">
         <v>11257.2</v>
       </c>
-      <c r="D271" s="14"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
@@ -7398,7 +7518,7 @@
       <c r="C272" s="10">
         <v>11536.46</v>
       </c>
-      <c r="D272" s="14"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
@@ -7410,7 +7530,7 @@
       <c r="C273" s="10">
         <v>12166.99</v>
       </c>
-      <c r="D273" s="14"/>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
@@ -7422,7 +7542,7 @@
       <c r="C274" s="10">
         <v>12608.53</v>
       </c>
-      <c r="D274" s="14"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
@@ -7434,7 +7554,7 @@
       <c r="C275" s="10">
         <v>13065.7</v>
       </c>
-      <c r="D275" s="14"/>
+      <c r="D275" s="13"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
@@ -7446,7 +7566,7 @@
       <c r="C276" s="10">
         <v>13200.54</v>
       </c>
-      <c r="D276" s="14"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
@@ -7458,7 +7578,7 @@
       <c r="C277" s="10">
         <v>13590.57</v>
       </c>
-      <c r="D277" s="14"/>
+      <c r="D277" s="13"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
@@ -7470,7 +7590,7 @@
       <c r="C278" s="10">
         <v>13784.46</v>
       </c>
-      <c r="D278" s="14"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
@@ -7482,7 +7602,7 @@
       <c r="C279" s="10">
         <v>13941.87</v>
       </c>
-      <c r="D279" s="14"/>
+      <c r="D279" s="13"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
@@ -7494,7 +7614,7 @@
       <c r="C280" s="10">
         <v>14178.22</v>
       </c>
-      <c r="D280" s="14"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
@@ -7506,7 +7626,7 @@
       <c r="C281" s="10">
         <v>14408.17</v>
       </c>
-      <c r="D281" s="14"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
@@ -7518,7 +7638,7 @@
       <c r="C282" s="10">
         <v>14717.69</v>
       </c>
-      <c r="D282" s="14"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
@@ -7530,7 +7650,7 @@
       <c r="C283" s="10">
         <v>15280.25</v>
       </c>
-      <c r="D283" s="14"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
@@ -7542,7 +7662,7 @@
       <c r="C284" s="10">
         <v>16152.62</v>
       </c>
-      <c r="D284" s="14"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
@@ -7554,7 +7674,7 @@
       <c r="C285" s="10">
         <v>16755.86</v>
       </c>
-      <c r="D285" s="14"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
@@ -7566,7 +7686,7 @@
       <c r="C286" s="10">
         <v>17542.89</v>
       </c>
-      <c r="D286" s="14"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
@@ -7578,7 +7698,7 @@
       <c r="C287" s="10">
         <v>18271.47</v>
       </c>
-      <c r="D287" s="14"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
@@ -7590,7 +7710,7 @@
       <c r="C288" s="10">
         <v>18769.41</v>
       </c>
-      <c r="D288" s="14"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
@@ -7602,7 +7722,7 @@
       <c r="C289" s="10">
         <v>19700.22</v>
       </c>
-      <c r="D289" s="14"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
@@ -7614,7 +7734,7 @@
       <c r="C290" s="10">
         <v>20374.61</v>
       </c>
-      <c r="D290" s="14"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
@@ -7626,7 +7746,7 @@
       <c r="C291" s="10">
         <v>20855.990000000002</v>
       </c>
-      <c r="D291" s="14"/>
+      <c r="D291" s="13"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
@@ -7638,7 +7758,7 @@
       <c r="C292" s="10">
         <v>21517.26</v>
       </c>
-      <c r="D292" s="14"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
@@ -7650,7 +7770,7 @@
       <c r="C293" s="10">
         <v>21869.47</v>
       </c>
-      <c r="D293" s="14"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
@@ -7662,7 +7782,7 @@
       <c r="C294" s="10">
         <v>22122.66</v>
       </c>
-      <c r="D294" s="14"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
@@ -7674,7 +7794,7 @@
       <c r="C295" s="10">
         <v>22826.04</v>
       </c>
-      <c r="D295" s="14"/>
+      <c r="D295" s="13"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
@@ -7686,7 +7806,7 @@
       <c r="C296" s="10">
         <v>23419.19</v>
       </c>
-      <c r="D296" s="14"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
@@ -7698,7 +7818,7 @@
       <c r="C297" s="10">
         <v>23921.62</v>
       </c>
-      <c r="D297" s="14"/>
+      <c r="D297" s="13"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
@@ -7710,7 +7830,7 @@
       <c r="C298" s="10">
         <v>24642.76</v>
       </c>
-      <c r="D298" s="14"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
@@ -7722,7 +7842,7 @@
       <c r="C299" s="10">
         <v>25444.81</v>
       </c>
-      <c r="D299" s="14"/>
+      <c r="D299" s="13"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
@@ -7734,7 +7854,7 @@
       <c r="C300" s="10">
         <v>27122.1</v>
       </c>
-      <c r="D300" s="14"/>
+      <c r="D300" s="13"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
@@ -7746,7 +7866,7 @@
       <c r="C301" s="10">
         <v>29026.01</v>
       </c>
-      <c r="D301" s="14"/>
+      <c r="D301" s="13"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
@@ -7758,7 +7878,7 @@
       <c r="C302" s="10">
         <v>30828.6</v>
       </c>
-      <c r="D302" s="14"/>
+      <c r="D302" s="13"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
@@ -7770,7 +7890,7 @@
       <c r="C303" s="10">
         <v>32257.88</v>
       </c>
-      <c r="D303" s="14"/>
+      <c r="D303" s="13"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
@@ -7782,7 +7902,7 @@
       <c r="C304" s="10">
         <v>33727.120000000003</v>
       </c>
-      <c r="D304" s="14"/>
+      <c r="D304" s="13"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
@@ -7794,7 +7914,7 @@
       <c r="C305" s="10">
         <v>36018.629999999997</v>
       </c>
-      <c r="D305" s="15"/>
+      <c r="D305" s="14"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
@@ -7806,7 +7926,7 @@
       <c r="C306" s="10">
         <v>38756.29</v>
       </c>
-      <c r="D306" s="15"/>
+      <c r="D306" s="14"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
@@ -7818,7 +7938,7 @@
       <c r="C307" s="10">
         <v>41493.24</v>
       </c>
-      <c r="D307" s="15"/>
+      <c r="D307" s="14"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
@@ -7830,7 +7950,7 @@
       <c r="C308" s="10">
         <v>45222.57</v>
       </c>
-      <c r="D308" s="15"/>
+      <c r="D308" s="14"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
@@ -7842,7 +7962,7 @@
       <c r="C309" s="10">
         <v>47232.32</v>
       </c>
-      <c r="D309" s="15"/>
+      <c r="D309" s="14"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
@@ -7854,7 +7974,7 @@
       <c r="C310" s="10">
         <v>49357.7</v>
       </c>
-      <c r="D310" s="15"/>
+      <c r="D310" s="14"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
@@ -7986,6 +8106,138 @@
       </c>
       <c r="C322" s="10">
         <v>160452.53</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B323" s="9">
+        <v>153290.35348829124</v>
+      </c>
+      <c r="C323" s="10">
+        <v>193146.66</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B324" s="9">
+        <v>172567.11363224947</v>
+      </c>
+      <c r="C324" s="10">
+        <v>223592.74</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B325" s="9">
+        <v>187593.01976180574</v>
+      </c>
+      <c r="C325" s="10">
+        <v>250286.44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B326" s="9">
+        <v>199519.62956521017</v>
+      </c>
+      <c r="C326" s="10">
+        <v>268012.36</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="4">
+        <v>45413</v>
+      </c>
+      <c r="B327" s="9">
+        <v>206510.34526798208</v>
+      </c>
+      <c r="C327" s="10">
+        <v>275518.08000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="4">
+        <v>45444</v>
+      </c>
+      <c r="B328" s="9">
+        <v>214643.70475532921</v>
+      </c>
+      <c r="C328" s="10">
+        <v>282578.89</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B329" s="9">
+        <v>222050.73902085889</v>
+      </c>
+      <c r="C329" s="10">
+        <v>291471.73</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B330" s="9">
+        <v>230358.96455576745</v>
+      </c>
+      <c r="C330" s="10">
+        <v>304170.44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="4">
+        <v>45536</v>
+      </c>
+      <c r="B331" s="9">
+        <v>236235.77422111743</v>
+      </c>
+      <c r="C331" s="10">
+        <v>312174.7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="4">
+        <v>45566</v>
+      </c>
+      <c r="B332" s="9">
+        <v>242121.34037571441</v>
+      </c>
+      <c r="C332" s="10">
+        <v>319283.59999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B333" s="9">
+        <v>246998.36172799233</v>
+      </c>
+      <c r="C333" s="10">
+        <v>324099.09999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B334" s="9">
+        <v>255485.73779818334</v>
+      </c>
+      <c r="C334" s="10">
+        <v>331532.43</v>
       </c>
     </row>
   </sheetData>
